--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C4A4F2-2BDF-4524-B8DB-4FD56736E0AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD04BCDD-445E-4331-B5CD-3030FC5BCEBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1824" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>宝昌</t>
   </si>
@@ -238,15 +238,21 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>差值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -304,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +368,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -398,43 +410,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -640,7 +615,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -666,58 +641,76 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="9" borderId="18" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="15" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="9" borderId="19" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="19" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="22" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="19" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -732,26 +725,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="7" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
+    <cellStyle name="20% - 着色 3" xfId="9" builtinId="38"/>
     <cellStyle name="20% - 着色 5" xfId="4" builtinId="46"/>
     <cellStyle name="20% - 着色 6" xfId="8" builtinId="50"/>
     <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
@@ -1041,7 +1027,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1049,6 +1035,7 @@
     <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1057,33 +1044,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="E1" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="42" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="24">
+      <c r="O1" s="21">
         <f>B39/10000</f>
         <v>285.81879999999256</v>
       </c>
@@ -1092,35 +1083,42 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6">
-        <v>97358.8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="42">
+        <v>2955223.8</v>
+      </c>
+      <c r="C2" s="47">
+        <v>2955223.8</v>
+      </c>
+      <c r="D2" s="48">
+        <f>C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <f>A18</f>
-        <v>540.32000000000005</v>
-      </c>
-      <c r="F2">
+        <v>1242.7350000000001</v>
+      </c>
+      <c r="G2">
         <f>B7/10</f>
-        <v>1242.7350000000001</v>
-      </c>
-      <c r="G2" s="2">
+        <v>4089.6</v>
+      </c>
+      <c r="H2" s="2">
         <v>36.68</v>
       </c>
-      <c r="H2">
-        <f>(F2-E2)/(C14*G2)</f>
-        <v>9.5749045801526727</v>
-      </c>
       <c r="I2">
-        <f>RANK(H2,(H2,H3,H5,H6,H8),0)</f>
-        <v>3</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="25">
+        <f>(G2-F2)/(C14*H2)</f>
+        <v>11.087649945474373</v>
+      </c>
+      <c r="J2">
+        <f>RANK(I2,(I2,I3,I5,I6,I8),0)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="22">
         <f>B40/10000</f>
         <v>4204.0079000000314</v>
       </c>
@@ -1129,31 +1127,34 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
-        <v>48743.199999999997</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48">
+        <f>C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>B18</f>
-        <v>1020.36</v>
-      </c>
-      <c r="F3">
+        <v>2057.3519999999999</v>
+      </c>
+      <c r="G3">
         <f>B6/10</f>
-        <v>2057.3519999999999</v>
-      </c>
-      <c r="G3" s="2">
+        <v>5950</v>
+      </c>
+      <c r="H3" s="2">
         <v>54</v>
       </c>
-      <c r="H3">
-        <f>(F3-E3)/(C14*G3)</f>
-        <v>9.6017777777777749</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="25">
+      <c r="I3">
+        <f>(G3-F3)/(C14*H3)</f>
+        <v>10.298010582010582</v>
+      </c>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="22">
         <f>B41/10000</f>
         <v>120013.34440000003</v>
       </c>
@@ -1162,33 +1163,40 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
-        <v>332211.20000000001</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="43">
+        <v>144513</v>
+      </c>
+      <c r="C4" s="47">
+        <v>144513</v>
+      </c>
+      <c r="D4" s="48">
+        <f>C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>C18</f>
-        <v>655.24800000000005</v>
-      </c>
-      <c r="F4">
+        <v>1277.76</v>
+      </c>
+      <c r="G4">
         <f>B10/10</f>
-        <v>1277.76</v>
-      </c>
-      <c r="G4" s="2">
+        <v>4169.26</v>
+      </c>
+      <c r="H4" s="2">
         <v>24.3</v>
       </c>
-      <c r="H4">
-        <f>(F4-E4)/(C14*G4)</f>
-        <v>12.808888888888887</v>
-      </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="42" t="s">
+      <c r="I4">
+        <f>(G4-F4)/(C14*H4)</f>
+        <v>16.998824221046444</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="22">
         <f>O1/36.68</f>
         <v>7.7922246455832216</v>
       </c>
@@ -1197,31 +1205,38 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
-        <v>20116.8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="43">
+        <v>57023.6</v>
+      </c>
+      <c r="C5" s="47">
+        <v>54023.6</v>
+      </c>
+      <c r="D5" s="48">
+        <f>C5-B5</f>
+        <v>-3000</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>D18</f>
-        <v>491.83199999999999</v>
-      </c>
-      <c r="F5">
+        <v>951.72</v>
+      </c>
+      <c r="G5">
         <f>B8/10</f>
-        <v>951.72</v>
-      </c>
-      <c r="G5" s="2">
+        <v>2821.2400000000002</v>
+      </c>
+      <c r="H5" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="H5">
-        <f>(F5-E5)/(C14*G5)</f>
-        <v>6.1812903225806455</v>
-      </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="25">
+      <c r="I5">
+        <f>(G5-F5)/(C14*H5)</f>
+        <v>7.1794162826420891</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="22">
         <f t="shared" ref="O5:O6" si="0">O2/36.68</f>
         <v>114.61308342421023</v>
       </c>
@@ -1230,29 +1245,36 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7">
-        <v>20573.52</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="43">
+        <v>59500</v>
+      </c>
+      <c r="C6" s="47">
+        <v>59500</v>
+      </c>
+      <c r="D6" s="48">
+        <f>C6-B6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>E18</f>
-        <v>121.70399999999999</v>
-      </c>
-      <c r="F6">
+        <v>251.81199999999998</v>
+      </c>
+      <c r="G6">
         <f>B9/10</f>
-        <v>251.81199999999998</v>
-      </c>
-      <c r="G6" s="2">
+        <v>3222.9</v>
+      </c>
+      <c r="H6" s="2">
         <v>61.3</v>
       </c>
-      <c r="H6">
-        <f>(F6-E6)/(C14*G6)</f>
-        <v>1.0612398042414357</v>
-      </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="25">
+      <c r="I6">
+        <f>(G6-F6)/(C14*H6)</f>
+        <v>6.9239990678163608</v>
+      </c>
+      <c r="N6" s="32"/>
+      <c r="O6" s="22">
         <f t="shared" si="0"/>
         <v>3271.9014285714293</v>
       </c>
@@ -1261,135 +1283,164 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7">
-        <v>12427.35</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="43">
+        <v>40896</v>
+      </c>
+      <c r="C7" s="47">
+        <v>40896</v>
+      </c>
+      <c r="D7" s="48">
+        <f>C7-B7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>H18</f>
-        <v>807.84</v>
-      </c>
-      <c r="F7">
+        <v>2011.6799999999998</v>
+      </c>
+      <c r="G7">
         <f>B5/10</f>
-        <v>2011.6799999999998</v>
-      </c>
-      <c r="G7" s="2">
+        <v>5702.36</v>
+      </c>
+      <c r="H7" s="2">
         <v>44</v>
       </c>
-      <c r="H7">
-        <f>(F7-E7)/(C14*G7)</f>
-        <v>13.679999999999996</v>
-      </c>
-      <c r="N7" s="43" t="s">
+      <c r="I7">
+        <f>(G7-F7)/(C14*H7)</f>
+        <v>11.982727272727272</v>
+      </c>
+      <c r="N7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="26">
-        <f>H2-H10</f>
-        <v>1.5048505953771585</v>
+      <c r="O7" s="23">
+        <f>I2-I10</f>
+        <v>1.0106947311997523</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7">
-        <v>9517.2000000000007</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="43">
+        <v>28212.400000000001</v>
+      </c>
+      <c r="C8" s="47">
+        <v>28212.400000000001</v>
+      </c>
+      <c r="D8" s="48">
+        <f>C8-B8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="E8">
-        <f>E7+E4</f>
-        <v>1463.0880000000002</v>
       </c>
       <c r="F8">
         <f>F7+F4</f>
         <v>3289.4399999999996</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <f>G7+G4</f>
+        <v>9871.619999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <f>H7+H4</f>
         <v>68.3</v>
       </c>
-      <c r="H8">
-        <f>(F8-E8)/(C14*G8)</f>
-        <v>13.370073206442163</v>
-      </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="26">
+      <c r="I8">
+        <f>(G8-F8)/(C14*H8)</f>
+        <v>13.767370842919892</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="O8" s="23">
         <f>A26-G26</f>
-        <v>3.613794958230347</v>
+        <v>10.688658076628613</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7">
-        <v>2518.12</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="43">
+        <v>32229</v>
+      </c>
+      <c r="C9" s="47">
+        <v>32229</v>
+      </c>
+      <c r="D9" s="48">
+        <f>C9-B9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="16">
-        <f>SUM(E2:E7)</f>
-        <v>3637.3040000000001</v>
-      </c>
-      <c r="F9" s="16">
-        <f t="shared" ref="F9:G9" si="1">SUM(F2:F7)</f>
+      <c r="F9" s="13">
+        <f>SUM(F2:F7)</f>
         <v>7793.0589999999993</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
+        <f t="shared" ref="G9:H9" si="1">SUM(G2:G7)</f>
+        <v>25955.360000000004</v>
+      </c>
+      <c r="H9" s="13">
         <f t="shared" si="1"/>
         <v>257.48</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="26">
+      <c r="I9" s="13"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="23">
         <f>A30-G30</f>
-        <v>595.90715990010722</v>
+        <v>602.98202301850597</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8">
-        <v>12777.6</v>
-      </c>
-      <c r="H10">
-        <f>(F9-E9)/(G9*C14)</f>
-        <v>8.0700539847755142</v>
-      </c>
-      <c r="N10" s="43" t="s">
+      <c r="B10" s="44">
+        <v>41692.6</v>
+      </c>
+      <c r="C10" s="49">
+        <v>41692</v>
+      </c>
+      <c r="D10" s="50">
+        <f>C10-B10</f>
+        <v>-0.59999999999854481</v>
+      </c>
+      <c r="I10">
+        <f>(G9-F9)/(H9*C14)</f>
+        <v>10.076955214274621</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="26">
-        <f>RANK(H2,(H2,H3,H5,H6,H8),0)</f>
-        <v>3</v>
+      <c r="O10" s="23">
+        <f>RANK(I2,(I2,I3,I5,I6,I8),0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N11" s="43"/>
-      <c r="O11" s="26">
+      <c r="C11" s="41"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="23">
         <f>RANK(A26,(A26,B26,D26,E26,I26),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="26">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="23">
         <f>RANK(A30,(B30,A30,D30,E30,I30),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1399,466 +1450,474 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="40"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>43410</v>
+        <v>43412</v>
       </c>
       <c r="B14" s="5">
-        <v>43412</v>
+        <v>43419</v>
       </c>
       <c r="C14" s="3">
         <f>B14-A14</f>
-        <v>2</v>
-      </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="40"/>
+        <v>7</v>
+      </c>
+      <c r="N14" s="32"/>
+      <c r="O14" s="30"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="42"/>
-      <c r="O15" s="40"/>
-    </row>
-    <row r="16" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="N15" s="32"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="9"/>
-      <c r="N16" s="42" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="6"/>
+      <c r="N16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="40"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="40"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>540.32000000000005</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1020.36</v>
-      </c>
-      <c r="C18" s="11">
-        <v>655.24800000000005</v>
-      </c>
-      <c r="D18" s="11">
-        <v>491.83199999999999</v>
-      </c>
-      <c r="E18" s="11">
-        <v>121.70399999999999</v>
-      </c>
-      <c r="F18" s="11">
-        <v>2582.8000000000002</v>
-      </c>
-      <c r="G18" s="11">
-        <v>865.92</v>
-      </c>
-      <c r="H18" s="11">
-        <v>807.84</v>
-      </c>
-      <c r="I18" s="12">
-        <v>7086.0240000000003</v>
-      </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="41"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>1242.7350000000001</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2057.3519999999999</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1277.76</v>
+      </c>
+      <c r="D18" s="8">
+        <v>951.72</v>
+      </c>
+      <c r="E18" s="8">
+        <v>251.81199999999998</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4874.32</v>
+      </c>
+      <c r="G18" s="8">
+        <v>3321.12</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2011.6799999999998</v>
+      </c>
+      <c r="I18" s="9">
+        <v>15988.499</v>
+      </c>
+      <c r="N18" s="32"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="N20" s="38" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="N20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="25">
         <f>B42/10000</f>
         <v>61.459999999997578</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="39"/>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="11">
         <f>B7/10</f>
-        <v>1242.7350000000001</v>
-      </c>
-      <c r="B22" s="15">
+        <v>4089.6</v>
+      </c>
+      <c r="B22" s="12">
         <f>B6/10</f>
-        <v>2057.3519999999999</v>
-      </c>
-      <c r="C22" s="15">
+        <v>5950</v>
+      </c>
+      <c r="C22" s="12">
         <f>B10/10</f>
-        <v>1277.76</v>
-      </c>
-      <c r="D22" s="15">
+        <v>4169.26</v>
+      </c>
+      <c r="D22" s="12">
         <f>B8/10</f>
-        <v>951.72</v>
-      </c>
-      <c r="E22" s="15">
+        <v>2821.2400000000002</v>
+      </c>
+      <c r="E22" s="12">
         <f>B9/10</f>
-        <v>251.81199999999998</v>
-      </c>
-      <c r="F22" s="15">
+        <v>3222.9</v>
+      </c>
+      <c r="F22" s="12">
         <f>B3/10</f>
-        <v>4874.32</v>
-      </c>
-      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
         <f>B4/10</f>
-        <v>33221.120000000003</v>
-      </c>
-      <c r="H22" s="15">
+        <v>14451.3</v>
+      </c>
+      <c r="H22" s="12">
         <f>B5/10</f>
-        <v>2011.6799999999998</v>
+        <v>5702.36</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>33.880452562704477</v>
-      </c>
-      <c r="B26" s="11">
-        <v>38.099111111111107</v>
-      </c>
-      <c r="C26" s="11">
-        <v>52.582716049382711</v>
-      </c>
-      <c r="D26" s="11">
-        <v>25.583870967741934</v>
-      </c>
-      <c r="E26" s="11">
-        <v>4.107862969004894</v>
-      </c>
-      <c r="F26" s="11">
-        <v>45.72</v>
-      </c>
-      <c r="G26" s="11">
-        <v>30.26665760447413</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12">
-        <v>48.161639824304537</v>
+      <c r="A26" s="7">
+        <v>111.49400218102508</v>
+      </c>
+      <c r="B26" s="8">
+        <v>110.18518518518519</v>
+      </c>
+      <c r="C26" s="8">
+        <v>171.57448559670783</v>
+      </c>
+      <c r="D26" s="8">
+        <v>75.839784946236563</v>
+      </c>
+      <c r="E26" s="8">
+        <v>52.575856443719417</v>
+      </c>
+      <c r="F26" s="8">
+        <v>129.5990909090909</v>
+      </c>
+      <c r="G26" s="8">
+        <v>100.80534410439647</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9">
+        <v>144.53323572474378</v>
+      </c>
+      <c r="K26">
+        <f>A26-G26</f>
+        <v>10.688658076628613</v>
+      </c>
+      <c r="L26">
+        <f>B26-A26</f>
+        <v>-1.3088169958398908</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>3117.5271264994549</v>
-      </c>
-      <c r="B30" s="11">
-        <v>2954.8341851851856</v>
-      </c>
-      <c r="C30" s="11">
-        <v>2315.9787654320985</v>
-      </c>
-      <c r="D30" s="11">
-        <v>2969.6626075268819</v>
-      </c>
-      <c r="E30" s="11">
-        <v>2014.0598531810767</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1935.0719545454544</v>
-      </c>
-      <c r="G30" s="11">
-        <v>2521.6199665993477</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12">
-        <v>2070.5922401171306</v>
+      <c r="A30" s="7">
+        <v>3195.1406761177755</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3026.9202592592596</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2434.970534979424</v>
+      </c>
+      <c r="D30" s="8">
+        <v>3019.9185215053762</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2062.5278466557911</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2018.9510454545455</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2592.1586530992695</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9">
+        <v>2166.9638360175695</v>
+      </c>
+      <c r="K30">
+        <f>G30-A30</f>
+        <v>-602.98202301850597</v>
+      </c>
+      <c r="L30">
+        <f>A30-B30</f>
+        <v>168.22041685851582</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="34"/>
     </row>
     <row r="33" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="15">
         <v>1115</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="17">
         <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="30"/>
+      <c r="B38" s="27"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="17">
         <v>2858187.9999999255</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="17">
         <v>42040079.000000313</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="17">
         <v>1200133444.0000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="17">
         <v>614599.99999997579</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="30"/>
+      <c r="B43" s="27"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="17">
         <v>5631962.000000177</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="17">
         <v>50220969.000000231</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="30"/>
+      <c r="B46" s="27"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="17">
         <v>7500</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="19">
         <v>130125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -1868,6 +1927,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD04BCDD-445E-4331-B5CD-3030FC5BCEBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAEA014-77F1-4B72-8EA9-7996C6CFE68C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1824" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,8 +251,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -686,6 +686,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="11" borderId="7" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="11" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,37 +735,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="7" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 着色 3" xfId="9" builtinId="38"/>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1044,12 +1044,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>64</v>
       </c>
       <c r="F1" t="s">
@@ -1067,30 +1067,30 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="32" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="49" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="21">
         <f>B39/10000</f>
-        <v>285.81879999999256</v>
+        <v>289.13809999999518</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="29">
         <v>2955223.8</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="34">
         <v>2955223.8</v>
       </c>
-      <c r="D2" s="48">
-        <f>C2-B2</f>
+      <c r="D2" s="35">
+        <f t="shared" ref="D2:D10" si="0">C2-B2</f>
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -1115,22 +1115,22 @@
         <f>RANK(I2,(I2,I3,I5,I6,I8),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="32"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="22">
         <f>B40/10000</f>
-        <v>4204.0079000000314</v>
+        <v>5351.7972000000354</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48">
-        <f>C3-B3</f>
+      <c r="B3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -1151,26 +1151,26 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>10.298010582010582</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="32"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="22">
         <f>B41/10000</f>
-        <v>120013.34440000003</v>
+        <v>121161.13370000002</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="30">
         <v>144513</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="34">
         <v>144513</v>
       </c>
-      <c r="D4" s="48">
-        <f>C4-B4</f>
+      <c r="D4" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" t="s">
@@ -1191,28 +1191,28 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>16.998824221046444</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="32" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="49" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="22">
         <f>O1/36.68</f>
-        <v>7.7922246455832216</v>
+        <v>7.8827181025080471</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="30">
         <v>57023.6</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="34">
         <v>54023.6</v>
       </c>
-      <c r="D5" s="48">
-        <f>C5-B5</f>
+      <c r="D5" s="35">
+        <f t="shared" si="0"/>
         <v>-3000</v>
       </c>
       <c r="E5" t="s">
@@ -1233,26 +1233,26 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>7.1794162826420891</v>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="32"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="22">
-        <f t="shared" ref="O5:O6" si="0">O2/36.68</f>
-        <v>114.61308342421023</v>
+        <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
+        <v>145.9050490730653</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="30">
         <v>59500</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="34">
         <v>59500</v>
       </c>
-      <c r="D6" s="48">
-        <f>C6-B6</f>
+      <c r="D6" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" t="s">
@@ -1273,24 +1273,24 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>6.9239990678163608</v>
       </c>
-      <c r="N6" s="32"/>
+      <c r="N6" s="49"/>
       <c r="O6" s="22">
-        <f t="shared" si="0"/>
-        <v>3271.9014285714293</v>
+        <f t="shared" si="1"/>
+        <v>3303.1933942202841</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="30">
         <v>40896</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="34">
         <v>40896</v>
       </c>
-      <c r="D7" s="48">
-        <f>C7-B7</f>
+      <c r="D7" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" t="s">
@@ -1311,7 +1311,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>11.982727272727272</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="50" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="23">
@@ -1323,14 +1323,14 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="30">
         <v>28212.400000000001</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="34">
         <v>28212.400000000001</v>
       </c>
-      <c r="D8" s="48">
-        <f>C8-B8</f>
+      <c r="D8" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -1352,7 +1352,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>13.767370842919892</v>
       </c>
-      <c r="N8" s="33"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="23">
         <f>A26-G26</f>
         <v>10.688658076628613</v>
@@ -1362,14 +1362,14 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="30">
         <v>32229</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="34">
         <v>32229</v>
       </c>
-      <c r="D9" s="48">
-        <f>C9-B9</f>
+      <c r="D9" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -1380,15 +1380,15 @@
         <v>7793.0589999999993</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" ref="G9:H9" si="1">SUM(G2:G7)</f>
+        <f t="shared" ref="G9:H9" si="2">SUM(G2:G7)</f>
         <v>25955.360000000004</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>257.48</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="N9" s="33"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="23">
         <f>A30-G30</f>
         <v>602.98202301850597</v>
@@ -1398,21 +1398,21 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="31">
         <v>41692.6</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="36">
         <v>41692</v>
       </c>
-      <c r="D10" s="50">
-        <f>C10-B10</f>
+      <c r="D10" s="37">
+        <f t="shared" si="0"/>
         <v>-0.59999999999854481</v>
       </c>
       <c r="I10">
         <f>(G9-F9)/(H9*C14)</f>
         <v>10.076955214274621</v>
       </c>
-      <c r="N10" s="33" t="s">
+      <c r="N10" s="50" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="23">
@@ -1421,20 +1421,20 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="41"/>
-      <c r="N11" s="33"/>
+      <c r="C11" s="28"/>
+      <c r="N11" s="50"/>
       <c r="O11" s="23">
         <f>RANK(A26,(A26,B26,D26,E26,I26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="N12" s="33"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="N12" s="50"/>
       <c r="O12" s="23">
         <f>RANK(A30,(B30,A30,D30,E30,I30),0)</f>
         <v>1</v>
@@ -1450,10 +1450,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="30"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1466,29 +1466,29 @@
         <f>B14-A14</f>
         <v>7</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="30"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="32"/>
-      <c r="O15" s="30"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="6"/>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="30"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1518,8 +1518,8 @@
       <c r="I17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="30"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -1549,8 +1549,8 @@
       <c r="I18" s="9">
         <v>15988.499</v>
       </c>
-      <c r="N18" s="32"/>
-      <c r="O18" s="31"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="20" t="s">
@@ -1561,22 +1561,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="N20" s="28" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="N20" s="45" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="25">
         <f>B42/10000</f>
-        <v>61.459999999997578</v>
+        <v>62.479000000003722</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
       <c r="H21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="29"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
@@ -1641,17 +1641,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -1716,15 +1716,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -1789,16 +1789,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="38"/>
     </row>
     <row r="33" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="38" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="15">
-        <v>1115</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="17">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="17">
-        <v>2858187.9999999255</v>
+        <v>2891380.999999952</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="17">
-        <v>42040079.000000313</v>
+        <v>53517972.000000358</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="17">
-        <v>1200133444.0000002</v>
+        <v>1211611337.0000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="17">
-        <v>614599.99999997579</v>
+        <v>624790.00000003725</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,6 +1918,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -1927,14 +1935,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAEA014-77F1-4B72-8EA9-7996C6CFE68C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273D6EDD-B653-4A35-9DF5-40D091E7BEDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2280" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2736" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,6 +696,24 @@
     <xf numFmtId="179" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="2" fillId="11" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="11" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,24 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1026,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -1044,10 +1044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="32"/>
       <c r="D1" s="33" t="s">
         <v>64</v>
@@ -1067,16 +1067,16 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="49" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="42" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="21">
         <f>B39/10000</f>
-        <v>289.13809999999518</v>
+        <v>284.55139999999869</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1115,12 +1115,12 @@
         <f>RANK(I2,(I2,I3,I5,I6,I8),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="49"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="22">
         <f>B40/10000</f>
-        <v>5351.7972000000354</v>
+        <v>5636.3486000000339</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1151,12 +1151,12 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>10.298010582010582</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="49"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="22">
         <f>B41/10000</f>
-        <v>121161.13370000002</v>
+        <v>121445.68510000002</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1191,14 +1191,14 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>16.998824221046444</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="49" t="s">
+      <c r="L4" s="45"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="42" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="22">
         <f>O1/36.68</f>
-        <v>7.8827181025080471</v>
+        <v>7.7576717557251555</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1233,12 +1233,12 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>7.1794162826420891</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="49"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="42"/>
       <c r="O5" s="22">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>145.9050490730653</v>
+        <v>153.66272082879047</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>6.9239990678163608</v>
       </c>
-      <c r="N6" s="49"/>
+      <c r="N6" s="42"/>
       <c r="O6" s="22">
         <f t="shared" si="1"/>
-        <v>3303.1933942202841</v>
+        <v>3310.9510659760094</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>11.982727272727272</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="43" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="23">
@@ -1352,7 +1352,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>13.767370842919892</v>
       </c>
-      <c r="N8" s="50"/>
+      <c r="N8" s="43"/>
       <c r="O8" s="23">
         <f>A26-G26</f>
         <v>10.688658076628613</v>
@@ -1388,7 +1388,7 @@
         <v>257.48</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="N9" s="50"/>
+      <c r="N9" s="43"/>
       <c r="O9" s="23">
         <f>A30-G30</f>
         <v>602.98202301850597</v>
@@ -1412,7 +1412,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>10.076955214274621</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="43" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="23">
@@ -1422,19 +1422,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="28"/>
-      <c r="N11" s="50"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="23">
         <f>RANK(A26,(A26,B26,D26,E26,I26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="N12" s="50"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="23">
         <f>RANK(A30,(B30,A30,D30,E30,I30),0)</f>
         <v>1</v>
@@ -1450,10 +1450,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="49" t="s">
+      <c r="N13" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1466,29 +1466,29 @@
         <f>B14-A14</f>
         <v>7</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="47"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="49"/>
-      <c r="O15" s="47"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="40"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="6"/>
-      <c r="N16" s="49" t="s">
+      <c r="N16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="47"/>
+      <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1518,8 +1518,8 @@
       <c r="I17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="49"/>
-      <c r="O17" s="47"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -1549,8 +1549,8 @@
       <c r="I18" s="9">
         <v>15988.499</v>
       </c>
-      <c r="N18" s="49"/>
-      <c r="O18" s="48"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="20" t="s">
@@ -1561,22 +1561,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="N20" s="45" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="N20" s="38" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="25">
         <f>B42/10000</f>
-        <v>62.479000000003722</v>
+        <v>60.809999999997579</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
       <c r="H21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="46"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
@@ -1641,17 +1641,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -1716,15 +1716,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -1789,16 +1789,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="44"/>
     </row>
     <row r="33" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="44" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="15">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="17">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="17">
-        <v>2891380.999999952</v>
+        <v>2845513.999999987</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="17">
-        <v>53517972.000000358</v>
+        <v>56363486.000000343</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="17">
-        <v>1211611337.0000002</v>
+        <v>1214456851.0000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="17">
-        <v>624790.00000003725</v>
+        <v>608099.99999997579</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="17">
-        <v>5631962.000000177</v>
+        <v>5823747.999999987</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="17">
-        <v>50220969.000000231</v>
+        <v>81268182.000000015</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,14 +1918,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -1935,6 +1927,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273D6EDD-B653-4A35-9DF5-40D091E7BEDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A13CC2C-B213-4BBE-AF9F-3B427AF8A6B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2736" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3192" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,6 +696,27 @@
     <xf numFmtId="179" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="2" fillId="11" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="11" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,27 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1026,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -1044,10 +1044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="32"/>
       <c r="D1" s="33" t="s">
         <v>64</v>
@@ -1067,16 +1067,16 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="42" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="49" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="21">
         <f>B39/10000</f>
-        <v>284.55139999999869</v>
+        <v>290.61380000000128</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1115,12 +1115,12 @@
         <f>RANK(I2,(I2,I3,I5,I6,I8),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="42"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="22">
         <f>B40/10000</f>
-        <v>5636.3486000000339</v>
+        <v>5926.9624000000358</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1151,12 +1151,12 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>10.298010582010582</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="22">
         <f>B41/10000</f>
-        <v>121445.68510000002</v>
+        <v>121736.29890000002</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1191,14 +1191,14 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>16.998824221046444</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="42" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="49" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="22">
         <f>O1/36.68</f>
-        <v>7.7576717557251555</v>
+        <v>7.9229498364231539</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1233,12 +1233,12 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>7.1794162826420891</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="42"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="22">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>153.66272082879047</v>
+        <v>161.58567066521363</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>6.9239990678163608</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="49"/>
       <c r="O6" s="22">
         <f t="shared" si="1"/>
-        <v>3310.9510659760094</v>
+        <v>3318.8740158124324</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>11.982727272727272</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="50" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="23">
@@ -1352,7 +1352,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>13.767370842919892</v>
       </c>
-      <c r="N8" s="43"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="23">
         <f>A26-G26</f>
         <v>10.688658076628613</v>
@@ -1388,7 +1388,7 @@
         <v>257.48</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="N9" s="43"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="23">
         <f>A30-G30</f>
         <v>602.98202301850597</v>
@@ -1412,7 +1412,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>10.076955214274621</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="50" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="23">
@@ -1422,19 +1422,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="28"/>
-      <c r="N11" s="43"/>
+      <c r="N11" s="50"/>
       <c r="O11" s="23">
         <f>RANK(A26,(A26,B26,D26,E26,I26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="N12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="N12" s="50"/>
       <c r="O12" s="23">
         <f>RANK(A30,(B30,A30,D30,E30,I30),0)</f>
         <v>1</v>
@@ -1450,10 +1450,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="40"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1466,29 +1466,29 @@
         <f>B14-A14</f>
         <v>7</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="40"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="42"/>
-      <c r="O15" s="40"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="6"/>
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="40"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1518,8 +1518,8 @@
       <c r="I17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="40"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -1549,8 +1549,8 @@
       <c r="I18" s="9">
         <v>15988.499</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="41"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="20" t="s">
@@ -1561,22 +1561,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="N20" s="38" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="N20" s="45" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="25">
         <f>B42/10000</f>
-        <v>60.809999999997579</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
       <c r="H21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="39"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
@@ -1641,17 +1641,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -1716,15 +1716,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -1789,16 +1789,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="38"/>
     </row>
     <row r="33" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="38" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="15">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="17">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="17">
-        <v>2845513.999999987</v>
+        <v>2906138.000000013</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="17">
-        <v>56363486.000000343</v>
+        <v>59269624.000000358</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="17">
-        <v>1214456851.0000002</v>
+        <v>1217362989.0000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="17">
-        <v>608099.99999997579</v>
+        <v>609500</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="17">
-        <v>5823747.999999987</v>
+        <v>5782820.0000000242</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="17">
-        <v>81268182.000000015</v>
+        <v>87051002.00000003</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,6 +1918,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -1927,14 +1935,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A13CC2C-B213-4BBE-AF9F-3B427AF8A6B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC16C6-5181-4CF4-B397-42FE475363A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3192" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3648" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>宝昌</t>
   </si>
@@ -241,6 +241,14 @@
   </si>
   <si>
     <t>差值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>比平均高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>比南山高</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -614,6 +622,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -645,12 +662,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="2" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -696,6 +712,24 @@
     <xf numFmtId="179" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="2" fillId="11" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="11" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,24 +751,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 着色 3" xfId="9" builtinId="38"/>
@@ -1026,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1044,12 +1066,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>64</v>
       </c>
       <c r="F1" t="s">
@@ -1067,14 +1089,14 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="49" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="21">
+      <c r="O1" s="20">
         <f>B39/10000</f>
         <v>290.61380000000128</v>
       </c>
@@ -1083,42 +1105,42 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <v>2955223.8</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>2955223.8</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <f t="shared" ref="D2:D10" si="0">C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="51">
         <f>A18</f>
-        <v>1242.7350000000001</v>
-      </c>
-      <c r="G2">
+        <v>4089.6</v>
+      </c>
+      <c r="G2" s="51">
         <f>B7/10</f>
-        <v>4089.6</v>
-      </c>
-      <c r="H2" s="2">
+        <v>5768.1</v>
+      </c>
+      <c r="H2" s="52">
         <v>36.68</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="51">
         <f>(G2-F2)/(C14*H2)</f>
-        <v>11.087649945474373</v>
+        <v>6.5372332138962479</v>
       </c>
       <c r="J2">
-        <f>RANK(I2,(I2,I3,I5,I6,I8),0)</f>
+        <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="22">
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="21">
         <f>B40/10000</f>
         <v>5926.9624000000358</v>
       </c>
@@ -1127,34 +1149,38 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35">
+      <c r="B3" s="29">
+        <v>4874.32</v>
+      </c>
+      <c r="C3" s="33">
+        <v>4874.32</v>
+      </c>
+      <c r="D3" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="51">
         <f>B18</f>
-        <v>2057.3519999999999</v>
-      </c>
-      <c r="G3">
+        <v>5950</v>
+      </c>
+      <c r="G3" s="51">
         <f>B6/10</f>
-        <v>5950</v>
-      </c>
-      <c r="H3" s="2">
+        <v>7868</v>
+      </c>
+      <c r="H3" s="52">
         <v>54</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="51">
         <f>(G3-F3)/(C14*H3)</f>
-        <v>10.298010582010582</v>
-      </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="22">
+        <v>5.0740740740740744</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="21">
         <f>B41/10000</f>
         <v>121736.29890000002</v>
       </c>
@@ -1163,40 +1189,40 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30">
-        <v>144513</v>
-      </c>
-      <c r="C4" s="34">
-        <v>144513</v>
-      </c>
-      <c r="D4" s="35">
+      <c r="B4" s="29">
+        <v>227579</v>
+      </c>
+      <c r="C4" s="33">
+        <v>227579</v>
+      </c>
+      <c r="D4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="51">
         <f>C18</f>
-        <v>1277.76</v>
-      </c>
-      <c r="G4">
+        <v>4169.26</v>
+      </c>
+      <c r="G4" s="51">
         <f>B10/10</f>
-        <v>4169.26</v>
-      </c>
-      <c r="H4" s="2">
+        <v>6454.45</v>
+      </c>
+      <c r="H4" s="52">
         <v>24.3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="51">
         <f>(G4-F4)/(C14*H4)</f>
-        <v>16.998824221046444</v>
-      </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="49" t="s">
+        <v>13.434391534391532</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <f>O1/36.68</f>
         <v>7.9229498364231539</v>
       </c>
@@ -1205,76 +1231,76 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>57023.6</v>
       </c>
-      <c r="C5" s="34">
-        <v>54023.6</v>
-      </c>
-      <c r="D5" s="35">
+      <c r="C5" s="33">
+        <v>57023.6</v>
+      </c>
+      <c r="D5" s="34">
         <f t="shared" si="0"/>
-        <v>-3000</v>
-      </c>
-      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="51">
         <f>D18</f>
-        <v>951.72</v>
-      </c>
-      <c r="G5">
+        <v>2821.2400000000002</v>
+      </c>
+      <c r="G5" s="51">
         <f>B8/10</f>
-        <v>2821.2400000000002</v>
-      </c>
-      <c r="H5" s="2">
+        <v>4125.7800000000007</v>
+      </c>
+      <c r="H5" s="52">
         <v>37.200000000000003</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="51">
         <f>(G5-F5)/(C14*H5)</f>
-        <v>7.1794162826420891</v>
-      </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="22">
+        <v>5.0097542242703543</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
         <v>161.58567066521363</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="30">
-        <v>59500</v>
-      </c>
-      <c r="C6" s="34">
-        <v>59500</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="B6" s="29">
+        <v>78680</v>
+      </c>
+      <c r="C6" s="33">
+        <v>78680</v>
+      </c>
+      <c r="D6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="54">
         <f>E18</f>
-        <v>251.81199999999998</v>
-      </c>
-      <c r="G6">
+        <v>3222.9</v>
+      </c>
+      <c r="G6" s="54">
         <f>B9/10</f>
-        <v>3222.9</v>
-      </c>
-      <c r="H6" s="2">
+        <v>4903.91</v>
+      </c>
+      <c r="H6" s="55">
         <v>61.3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="54">
         <f>(G6-F6)/(C14*H6)</f>
-        <v>6.9239990678163608</v>
-      </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="22">
+        <v>3.9175250524353293</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="21">
         <f t="shared" si="1"/>
         <v>3318.8740158124324</v>
       </c>
@@ -1283,13 +1309,13 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="30">
-        <v>40896</v>
-      </c>
-      <c r="C7" s="34">
-        <v>40896</v>
-      </c>
-      <c r="D7" s="35">
+      <c r="B7" s="29">
+        <v>57681</v>
+      </c>
+      <c r="C7" s="33">
+        <v>57681</v>
+      </c>
+      <c r="D7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1298,7 +1324,7 @@
       </c>
       <c r="F7">
         <f>H18</f>
-        <v>2011.6799999999998</v>
+        <v>5702.36</v>
       </c>
       <c r="G7">
         <f>B5/10</f>
@@ -1309,27 +1335,27 @@
       </c>
       <c r="I7">
         <f>(G7-F7)/(C14*H7)</f>
-        <v>11.982727272727272</v>
-      </c>
-      <c r="N7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="22">
         <f>I2-I10</f>
-        <v>1.0106947311997523</v>
+        <v>0.60342877587596</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30">
-        <v>28212.400000000001</v>
-      </c>
-      <c r="C8" s="34">
-        <v>28212.400000000001</v>
-      </c>
-      <c r="D8" s="35">
+      <c r="B8" s="29">
+        <v>41257.800000000003</v>
+      </c>
+      <c r="C8" s="33">
+        <v>41257.800000000003</v>
+      </c>
+      <c r="D8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1338,11 +1364,11 @@
       </c>
       <c r="F8">
         <f>F7+F4</f>
-        <v>3289.4399999999996</v>
+        <v>9871.619999999999</v>
       </c>
       <c r="G8">
         <f>G7+G4</f>
-        <v>9871.619999999999</v>
+        <v>12156.81</v>
       </c>
       <c r="H8" s="2">
         <f>H7+H4</f>
@@ -1350,93 +1376,93 @@
       </c>
       <c r="I8">
         <f>(G8-F8)/(C14*H8)</f>
-        <v>13.767370842919892</v>
-      </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="23">
+        <v>4.7797322735829342</v>
+      </c>
+      <c r="N8" s="42"/>
+      <c r="O8" s="22">
         <f>A26-G26</f>
-        <v>10.688658076628613</v>
+        <v>22.010732239274432</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="30">
-        <v>32229</v>
-      </c>
-      <c r="C9" s="34">
-        <v>32229</v>
-      </c>
-      <c r="D9" s="35">
+      <c r="B9" s="29">
+        <v>49039.1</v>
+      </c>
+      <c r="C9" s="33">
+        <v>49039.1</v>
+      </c>
+      <c r="D9" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="13">
-        <f>SUM(F2:F7)</f>
-        <v>7793.0589999999993</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" ref="G9:H9" si="2">SUM(G2:G7)</f>
-        <v>25955.360000000004</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="2"/>
-        <v>257.48</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="23">
+      <c r="F9" s="12">
+        <f>SUM(F2:F6)</f>
+        <v>20253.000000000004</v>
+      </c>
+      <c r="G9" s="12">
+        <f>SUM(G2:G6)</f>
+        <v>29120.240000000002</v>
+      </c>
+      <c r="H9" s="12">
+        <f>SUM(H2:H6)</f>
+        <v>213.48000000000002</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="22">
         <f>A30-G30</f>
-        <v>602.98202301850597</v>
+        <v>614.30409718115197</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="31">
-        <v>41692.6</v>
-      </c>
-      <c r="C10" s="36">
-        <v>41692</v>
-      </c>
-      <c r="D10" s="37">
+      <c r="B10" s="30">
+        <v>64544.5</v>
+      </c>
+      <c r="C10" s="35">
+        <v>64544.5</v>
+      </c>
+      <c r="D10" s="36">
         <f t="shared" si="0"/>
-        <v>-0.59999999999854481</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f>(G9-F9)/(H9*C14)</f>
-        <v>10.076955214274621</v>
-      </c>
-      <c r="N10" s="50" t="s">
+        <v>5.9338044380202879</v>
+      </c>
+      <c r="N10" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="23">
-        <f>RANK(I2,(I2,I3,I5,I6,I8),0)</f>
+      <c r="O10" s="22">
+        <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="23">
-        <f>RANK(A26,(A26,B26,D26,E26,I26),0)</f>
+      <c r="C11" s="27"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="22">
+        <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="23">
-        <f>RANK(A30,(B30,A30,D30,E30,I30),0)</f>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="22">
+        <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1450,482 +1476,486 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="49" t="s">
+      <c r="N13" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="39"/>
     </row>
     <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>43412</v>
-      </c>
-      <c r="B14" s="5">
         <v>43419</v>
+      </c>
+      <c r="B14" s="4">
+        <v>43426</v>
       </c>
       <c r="C14" s="3">
         <f>B14-A14</f>
         <v>7</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="47"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="49"/>
-      <c r="O15" s="47"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="39"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="6"/>
-      <c r="N16" s="49" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="5"/>
+      <c r="N16" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="47"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="49"/>
-      <c r="O17" s="47"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>1242.7350000000001</v>
-      </c>
-      <c r="B18" s="8">
-        <v>2057.3519999999999</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1277.76</v>
-      </c>
-      <c r="D18" s="8">
-        <v>951.72</v>
-      </c>
-      <c r="E18" s="8">
-        <v>251.81199999999998</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="A18" s="6">
+        <v>4089.6</v>
+      </c>
+      <c r="B18" s="7">
+        <v>5950</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4169.26</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2821.2400000000002</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3222.9</v>
+      </c>
+      <c r="F18" s="7">
         <v>4874.32</v>
       </c>
-      <c r="G18" s="8">
-        <v>3321.12</v>
-      </c>
-      <c r="H18" s="8">
-        <v>2011.6799999999998</v>
-      </c>
-      <c r="I18" s="9">
-        <v>15988.499</v>
-      </c>
-      <c r="N18" s="49"/>
-      <c r="O18" s="48"/>
+      <c r="G18" s="7">
+        <v>14451.3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5702.36</v>
+      </c>
+      <c r="I18" s="8">
+        <v>45280.98</v>
+      </c>
+      <c r="N18" s="41"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="N20" s="45" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="N20" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="24">
         <f>B42/10000</f>
         <v>60.95</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="46"/>
+      <c r="N21" s="38"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <f>B7/10</f>
-        <v>4089.6</v>
-      </c>
-      <c r="B22" s="12">
+        <v>5768.1</v>
+      </c>
+      <c r="B22" s="11">
         <f>B6/10</f>
-        <v>5950</v>
-      </c>
-      <c r="C22" s="12">
+        <v>7868</v>
+      </c>
+      <c r="C22" s="11">
         <f>B10/10</f>
-        <v>4169.26</v>
-      </c>
-      <c r="D22" s="12">
+        <v>6454.45</v>
+      </c>
+      <c r="D22" s="11">
         <f>B8/10</f>
-        <v>2821.2400000000002</v>
-      </c>
-      <c r="E22" s="12">
+        <v>4125.7800000000007</v>
+      </c>
+      <c r="E22" s="11">
         <f>B9/10</f>
-        <v>3222.9</v>
-      </c>
-      <c r="F22" s="12">
+        <v>4903.91</v>
+      </c>
+      <c r="F22" s="11">
         <f>B3/10</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
+        <v>487.43199999999996</v>
+      </c>
+      <c r="G22" s="11">
         <f>B4/10</f>
-        <v>14451.3</v>
-      </c>
-      <c r="H22" s="12">
+        <v>22757.9</v>
+      </c>
+      <c r="H22" s="11">
         <f>B5/10</f>
         <v>5702.36</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6" t="s">
+      <c r="H25" s="5"/>
+      <c r="I25" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="K25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>111.49400218102508</v>
-      </c>
-      <c r="B26" s="8">
-        <v>110.18518518518519</v>
-      </c>
-      <c r="C26" s="8">
-        <v>171.57448559670783</v>
-      </c>
-      <c r="D26" s="8">
-        <v>75.839784946236563</v>
-      </c>
-      <c r="E26" s="8">
-        <v>52.575856443719417</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="A26" s="6">
+        <v>157.2546346782988</v>
+      </c>
+      <c r="B26" s="7">
+        <v>145.7037037037037</v>
+      </c>
+      <c r="C26" s="7">
+        <v>265.61522633744852</v>
+      </c>
+      <c r="D26" s="7">
+        <v>110.90806451612904</v>
+      </c>
+      <c r="E26" s="7">
+        <v>79.998531810766721</v>
+      </c>
+      <c r="F26" s="7">
         <v>129.5990909090909</v>
       </c>
-      <c r="G26" s="8">
-        <v>100.80534410439647</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9">
-        <v>144.53323572474378</v>
+      <c r="G26" s="7">
+        <v>135.24390243902437</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>177.99136163982431</v>
       </c>
       <c r="K26">
         <f>A26-G26</f>
-        <v>10.688658076628613</v>
+        <v>22.010732239274432</v>
       </c>
       <c r="L26">
-        <f>B26-A26</f>
-        <v>-1.3088169958398908</v>
+        <f>A26-B26</f>
+        <v>11.550930974595104</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="K29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>3195.1406761177755</v>
-      </c>
-      <c r="B30" s="8">
-        <v>3026.9202592592596</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2434.970534979424</v>
-      </c>
-      <c r="D30" s="8">
-        <v>3019.9185215053762</v>
-      </c>
-      <c r="E30" s="8">
-        <v>2062.5278466557911</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="A30" s="6">
+        <v>3240.9013086150494</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3062.4387777777779</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2529.0112757201641</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3054.9868010752689</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2089.9505220228384</v>
+      </c>
+      <c r="F30" s="7">
         <v>2018.9510454545455</v>
       </c>
-      <c r="G30" s="8">
-        <v>2592.1586530992695</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9">
-        <v>2166.9638360175695</v>
+      <c r="G30" s="7">
+        <v>2626.5972114338974</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2200.4219619326504</v>
       </c>
       <c r="K30">
-        <f>G30-A30</f>
-        <v>-602.98202301850597</v>
+        <f>A30-G30</f>
+        <v>614.30409718115197</v>
       </c>
       <c r="L30">
         <f>A30-B30</f>
-        <v>168.22041685851582</v>
+        <v>178.46253083727152</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="43"/>
     </row>
     <row r="33" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>1122</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="26"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="16">
         <v>2906138.000000013</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>59269624.000000358</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>1217362989.0000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>609500</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="27"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>5782820.0000000242</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>87051002.00000003</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="27"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>7500</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="18">
         <v>130125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -1935,6 +1965,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC16C6-5181-4CF4-B397-42FE475363A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3F7E62-D229-45EE-94A6-61276BFDDCFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3648" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4104" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>宝昌</t>
   </si>
@@ -250,19 +250,39 @@
   <si>
     <t>比南山高</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止</t>
+  </si>
+  <si>
+    <t>当月上网利用小时</t>
+  </si>
+  <si>
+    <t>高区域平均</t>
+  </si>
+  <si>
+    <t>高于南山</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域排名第</t>
+  </si>
+  <si>
+    <t>年累上网利用小时</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,##0_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +336,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="12">
@@ -662,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
@@ -712,51 +739,54 @@
     <xf numFmtId="179" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="2" fillId="11" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="11" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 着色 3" xfId="9" builtinId="38"/>
@@ -1048,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1093,12 +1123,12 @@
         <v>60</v>
       </c>
       <c r="M1" s="45"/>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="54" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>290.61380000000128</v>
+        <v>296.82169999999127</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1115,21 +1145,21 @@
         <f t="shared" ref="D2:D10" si="0">C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="38">
         <f>A18</f>
         <v>4089.6</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="38">
         <f>B7/10</f>
         <v>5768.1</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="39">
         <v>36.68</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="38">
         <f>(G2-F2)/(C14*H2)</f>
         <v>6.5372332138962479</v>
       </c>
@@ -1139,10 +1169,10 @@
       </c>
       <c r="L2" s="44"/>
       <c r="M2" s="45"/>
-      <c r="N2" s="41"/>
+      <c r="N2" s="54"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>5926.9624000000358</v>
+        <v>7295.3863000000092</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1159,30 +1189,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="38">
         <f>B18</f>
         <v>5950</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="38">
         <f>B6/10</f>
         <v>7868</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="39">
         <v>54</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="38">
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.0740740740740744</v>
       </c>
       <c r="L3" s="44"/>
       <c r="M3" s="45"/>
-      <c r="N3" s="41"/>
+      <c r="N3" s="54"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>121736.29890000002</v>
+        <v>123104.7228</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1199,32 +1229,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="38">
         <f>C18</f>
         <v>4169.26</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="38">
         <f>B10/10</f>
         <v>6454.45</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="39">
         <v>24.3</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="38">
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.434391534391532</v>
       </c>
       <c r="L4" s="44"/>
       <c r="M4" s="45"/>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="54" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>7.9229498364231539</v>
+        <v>8.0921946564883118</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1241,30 +1271,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="38">
         <f>D18</f>
         <v>2821.2400000000002</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="38">
         <f>B8/10</f>
         <v>4125.7800000000007</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="39">
         <v>37.200000000000003</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="38">
         <f>(G5-F5)/(C14*H5)</f>
         <v>5.0097542242703543</v>
       </c>
       <c r="L5" s="44"/>
       <c r="M5" s="45"/>
-      <c r="N5" s="41"/>
+      <c r="N5" s="54"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>161.58567066521363</v>
+        <v>198.89275627044736</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1281,28 +1311,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="41">
         <f>E18</f>
         <v>3222.9</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="41">
         <f>B9/10</f>
         <v>4903.91</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="42">
         <v>61.3</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="41">
         <f>(G6-F6)/(C14*H6)</f>
         <v>3.9175250524353293</v>
       </c>
-      <c r="N6" s="41"/>
+      <c r="N6" s="54"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3318.8740158124324</v>
+        <v>3356.1811014176665</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1337,7 +1367,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="55" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1378,7 +1408,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>4.7797322735829342</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>22.010732239274432</v>
@@ -1414,7 +1444,7 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="55"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>614.30409718115197</v>
@@ -1438,7 +1468,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>5.9338044380202879</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="55" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1448,7 +1478,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="55"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
@@ -1460,7 +1490,7 @@
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
-      <c r="N12" s="42"/>
+      <c r="N12" s="55"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1476,10 +1506,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="41" t="s">
+      <c r="N13" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="39"/>
+      <c r="O13" s="52"/>
     </row>
     <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1492,12 +1522,12 @@
         <f>B14-A14</f>
         <v>7</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="39"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="52"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="41"/>
-      <c r="O15" s="39"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="52"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
@@ -1511,10 +1541,10 @@
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="41" t="s">
+      <c r="N16" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="39"/>
+      <c r="O16" s="52"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1544,8 +1574,8 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="39"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="52"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -1575,8 +1605,8 @@
       <c r="I18" s="8">
         <v>45280.98</v>
       </c>
-      <c r="N18" s="41"/>
-      <c r="O18" s="40"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="53"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1597,12 +1627,12 @@
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="50" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>60.95</v>
+        <v>61.430000000004654</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1630,7 +1660,7 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="38"/>
+      <c r="N21" s="51"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1746,6 +1776,10 @@
         <f>A26-B26</f>
         <v>11.550930974595104</v>
       </c>
+      <c r="N26">
+        <f>C26-A26</f>
+        <v>108.36059165914972</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
@@ -1832,7 +1866,7 @@
       </c>
       <c r="B32" s="43"/>
     </row>
-    <row r="33" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>59</v>
       </c>
@@ -1840,105 +1874,168 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F37" s="57">
+        <f>B14</f>
+        <v>43426</v>
+      </c>
+      <c r="G37" s="56">
+        <f>A26</f>
+        <v>157.2546346782988</v>
+      </c>
+      <c r="I37" s="56">
+        <f>K26</f>
+        <v>22.010732239274432</v>
+      </c>
+      <c r="J37" s="56">
+        <f>L26</f>
+        <v>11.550930974595104</v>
+      </c>
+      <c r="K37">
+        <f>O11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="26"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>2906138.000000013</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2968216.9999999125</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>59269624.000000358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72953863.000000089</v>
+      </c>
+      <c r="G40" s="56">
+        <f>A30</f>
+        <v>3240.9013086150494</v>
+      </c>
+      <c r="I40" s="56">
+        <f>K30</f>
+        <v>614.30409718115197</v>
+      </c>
+      <c r="J40" s="56">
+        <f>L30</f>
+        <v>178.46253083727152</v>
+      </c>
+      <c r="K40">
+        <f>O12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1217362989.0000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1231047228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>609500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>614300.00000004657</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="16">
-        <v>5782820.0000000242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2840530.0000000373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="16">
-        <v>87051002.00000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98444546.000000238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>57</v>
       </c>
@@ -1946,7 +2043,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>58</v>
       </c>
@@ -1956,6 +2053,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -1965,14 +2070,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC16C6-5181-4CF4-B397-42FE475363A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DE329B-C356-4296-847A-B4A77A8BAD43}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3648" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3645" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>宝昌</t>
   </si>
@@ -235,9 +240,6 @@
   <si>
     <t>美视</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>差值</t>
@@ -712,51 +714,51 @@
     <xf numFmtId="179" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="2" fillId="11" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="11" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 着色 3" xfId="9" builtinId="38"/>
@@ -1048,31 +1050,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -1093,15 +1095,15 @@
         <v>60</v>
       </c>
       <c r="M1" s="45"/>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="54" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>290.61380000000128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>563.61519999999086</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,21 +1117,21 @@
         <f t="shared" ref="D2:D10" si="0">C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="38">
         <f>A18</f>
         <v>4089.6</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="38">
         <f>B7/10</f>
         <v>5768.1</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="39">
         <v>36.68</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="38">
         <f>(G2-F2)/(C14*H2)</f>
         <v>6.5372332138962479</v>
       </c>
@@ -1139,13 +1141,13 @@
       </c>
       <c r="L2" s="44"/>
       <c r="M2" s="45"/>
-      <c r="N2" s="41"/>
+      <c r="N2" s="54"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>5926.9624000000358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6998.5646000000179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,33 +1161,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="38">
         <f>B18</f>
         <v>5950</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="38">
         <f>B6/10</f>
         <v>7868</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="39">
         <v>54</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="38">
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.0740740740740744</v>
       </c>
       <c r="L3" s="44"/>
       <c r="M3" s="45"/>
-      <c r="N3" s="41"/>
+      <c r="N3" s="54"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>121736.29890000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>122807.9011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1199,35 +1201,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="38">
         <f>C18</f>
         <v>4169.26</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="38">
         <f>B10/10</f>
         <v>6454.45</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="39">
         <v>24.3</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="38">
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.434391534391532</v>
       </c>
       <c r="L4" s="44"/>
       <c r="M4" s="45"/>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="54" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>7.9229498364231539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15.365736095964854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1241,33 +1243,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="38">
         <f>D18</f>
         <v>2821.2400000000002</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="38">
         <f>B8/10</f>
         <v>4125.7800000000007</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="39">
         <v>37.200000000000003</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="38">
         <f>(G5-F5)/(C14*H5)</f>
         <v>5.0097542242703543</v>
       </c>
       <c r="L5" s="44"/>
       <c r="M5" s="45"/>
-      <c r="N5" s="41"/>
+      <c r="N5" s="54"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>161.58567066521363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>190.80056161395905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,31 +1283,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="41">
         <f>E18</f>
         <v>3222.9</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="41">
         <f>B9/10</f>
         <v>4903.91</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="42">
         <v>61.3</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="41">
         <f>(G6-F6)/(C14*H6)</f>
         <v>3.9175250524353293</v>
       </c>
-      <c r="N6" s="41"/>
+      <c r="N6" s="54"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3318.8740158124324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3348.0889067611779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1337,7 +1339,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="55" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1345,7 +1347,7 @@
         <v>0.60342877587596</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1378,13 +1380,13 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>4.7797322735829342</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>22.010732239274432</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1416,13 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="55"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>614.30409718115197</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,7 +1440,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>5.9338044380202879</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="55" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1446,27 +1448,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="27"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="55"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
-      <c r="N12" s="42"/>
+      <c r="N12" s="55"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1476,12 +1478,12 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="41" t="s">
+      <c r="N13" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="39"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="52"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43419</v>
       </c>
@@ -1492,14 +1494,14 @@
         <f>B14-A14</f>
         <v>7</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="39"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="41"/>
-      <c r="O15" s="39"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="54"/>
+      <c r="O14" s="52"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="54"/>
+      <c r="O15" s="52"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
         <v>26</v>
       </c>
@@ -1511,12 +1513,12 @@
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="41" t="s">
+      <c r="N16" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="39"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="52"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1544,10 +1546,10 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="39"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="54"/>
+      <c r="O17" s="52"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>4089.6</v>
       </c>
@@ -1575,10 +1577,10 @@
       <c r="I18" s="8">
         <v>45280.98</v>
       </c>
-      <c r="N18" s="41"/>
-      <c r="O18" s="40"/>
-    </row>
-    <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="N18" s="54"/>
+      <c r="O18" s="53"/>
+    </row>
+    <row r="19" spans="1:15" ht="47.25" x14ac:dyDescent="0.2">
       <c r="N19" s="19" t="s">
         <v>36</v>
       </c>
@@ -1586,7 +1588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>28</v>
       </c>
@@ -1597,15 +1599,15 @@
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="50" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>60.95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>117.52999999999884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -1630,9 +1632,9 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="38"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="51"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <f>B7/10</f>
         <v>5768.1</v>
@@ -1666,7 +1668,7 @@
         <v>5702.36</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="s">
         <v>38</v>
       </c>
@@ -1679,7 +1681,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -1706,13 +1708,13 @@
         <v>62</v>
       </c>
       <c r="K25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>157.2546346782988</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>11.550930974595104</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
         <v>39</v>
       </c>
@@ -1758,7 +1760,7 @@
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
     </row>
-    <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
@@ -1785,13 +1787,13 @@
         <v>62</v>
       </c>
       <c r="K29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>3240.9013086150494</v>
       </c>
@@ -1826,13 +1828,13 @@
         <v>178.46253083727152</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="43"/>
     </row>
-    <row r="33" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>59</v>
       </c>
@@ -1840,23 +1842,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -1864,81 +1866,81 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="26"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>2906138.000000013</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5636151.9999999087</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>59269624.000000358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69985646.000000179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1217362989.0000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1228079011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>609500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1175299.9999999884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="16">
-        <v>5782820.0000000242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2862730.9999999823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="16">
-        <v>87051002.00000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92741205.00000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>57</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>58</v>
       </c>
@@ -1956,6 +1958,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -1965,14 +1975,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3F7E62-D229-45EE-94A6-61276BFDDCFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D26EF-DE00-4FA0-ACB1-3A0CB9AA926D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4104" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4110" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>宝昌</t>
   </si>
@@ -235,9 +240,6 @@
   <si>
     <t>美视</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>差值</t>
@@ -745,48 +747,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 着色 3" xfId="9" builtinId="38"/>
@@ -1078,31 +1080,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F23" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -1119,19 +1121,19 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="54" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="50" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>296.82169999999127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>570.55620000001693</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,15 +1169,15 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="54"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>7295.3863000000092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7865.9425000000256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,15 +1209,15 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.0740740740740744</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="54"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="50"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>123104.7228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>123675.27900000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1247,17 +1249,17 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.434391534391532</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="54" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="50" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>8.0921946564883118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15.554967284624235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1289,15 +1291,15 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>5.0097542242703543</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="54"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="50"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>198.89275627044736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>214.44772355507158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1329,13 +1331,13 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>3.9175250524353293</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="50"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3356.1811014176665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3371.7360687022906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1369,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="55" t="s">
+      <c r="N7" s="51" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1375,7 +1377,7 @@
         <v>0.60342877587596</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1408,13 +1410,13 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>4.7797322735829342</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="51"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>22.010732239274432</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1444,13 +1446,13 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="55"/>
+      <c r="N9" s="51"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>614.30409718115197</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1468,7 +1470,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>5.9338044380202879</v>
       </c>
-      <c r="N10" s="55" t="s">
+      <c r="N10" s="51" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1476,27 +1478,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="27"/>
-      <c r="N11" s="55"/>
+      <c r="N11" s="51"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="N12" s="55"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1506,12 +1508,12 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="52"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43419</v>
       </c>
@@ -1522,31 +1524,31 @@
         <f>B14-A14</f>
         <v>7</v>
       </c>
-      <c r="N14" s="54"/>
-      <c r="O14" s="52"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="54"/>
-      <c r="O15" s="52"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="N14" s="50"/>
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="50"/>
+      <c r="O15" s="48"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="54" t="s">
+      <c r="N16" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="52"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="48"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1574,10 +1576,10 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="54"/>
-      <c r="O17" s="52"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="50"/>
+      <c r="O17" s="48"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>4089.6</v>
       </c>
@@ -1605,10 +1607,10 @@
       <c r="I18" s="8">
         <v>45280.98</v>
       </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="53"/>
-    </row>
-    <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="N18" s="50"/>
+      <c r="O18" s="49"/>
+    </row>
+    <row r="19" spans="1:15" ht="47.25" x14ac:dyDescent="0.2">
       <c r="N19" s="19" t="s">
         <v>36</v>
       </c>
@@ -1616,26 +1618,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="N20" s="50" t="s">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="N20" s="46" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>61.430000000004654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119.1799999999986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -1660,9 +1662,9 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="51"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="47"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <f>B7/10</f>
         <v>5768.1</v>
@@ -1696,20 +1698,20 @@
         <v>5702.36</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -1736,13 +1738,13 @@
         <v>62</v>
       </c>
       <c r="K25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>157.2546346782988</v>
       </c>
@@ -1781,18 +1783,18 @@
         <v>108.36059165914972</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
@@ -1819,13 +1821,13 @@
         <v>62</v>
       </c>
       <c r="K29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>3240.9013086150494</v>
       </c>
@@ -1860,79 +1862,79 @@
         <v>178.46253083727152</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="43"/>
-    </row>
-    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="B32" s="52"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>68</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>69</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="K36" s="58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="57">
+      <c r="F37" s="44">
         <f>B14</f>
         <v>43426</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="43">
         <f>A26</f>
         <v>157.2546346782988</v>
       </c>
-      <c r="I37" s="56">
+      <c r="I37" s="43">
         <f>K26</f>
         <v>22.010732239274432</v>
       </c>
-      <c r="J37" s="56">
+      <c r="J37" s="43">
         <f>L26</f>
         <v>11.550930974595104</v>
       </c>
@@ -1941,48 +1943,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="26"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>2968216.9999999125</v>
-      </c>
-      <c r="G39" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39" s="58" t="s">
+        <v>5705562.0000001695</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" t="s">
         <v>69</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="K39" s="58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>72953863.000000089</v>
-      </c>
-      <c r="G40" s="56">
+        <v>78659425.000000253</v>
+      </c>
+      <c r="G40" s="43">
         <f>A30</f>
         <v>3240.9013086150494</v>
       </c>
-      <c r="I40" s="56">
+      <c r="I40" s="43">
         <f>K30</f>
         <v>614.30409718115197</v>
       </c>
-      <c r="J40" s="56">
+      <c r="J40" s="43">
         <f>L30</f>
         <v>178.46253083727152</v>
       </c>
@@ -1991,29 +1993,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1231047228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1236752790.0000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>614300.00000004657</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1191799.999999986</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
@@ -2021,7 +2023,7 @@
         <v>2840530.0000000373</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
@@ -2029,13 +2031,13 @@
         <v>98444546.000000238</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>57</v>
       </c>
@@ -2043,7 +2045,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>58</v>
       </c>
@@ -2053,14 +2055,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2070,6 +2064,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D26EF-DE00-4FA0-ACB1-3A0CB9AA926D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D553CF-84BF-45DA-B543-E7CAC84946A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4110" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4572" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>宝昌</t>
   </si>
@@ -271,6 +266,9 @@
   </si>
   <si>
     <t>年累上网利用小时</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -750,6 +748,27 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -767,27 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1080,28 +1078,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1121,19 +1119,19 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="50" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="57" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>570.55620000001693</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>290.82530000000958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1169,15 +1167,15 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="50"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>7865.9425000000256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8156.767800000036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1209,15 +1207,15 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.0740740740740744</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="50"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>123675.27900000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>123966.10430000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1249,17 +1247,17 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.434391534391532</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="50" t="s">
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="57" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>15.554967284624235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7.9287159214833585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1291,15 +1289,15 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>5.0097542242703543</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="50"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="57"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>214.44772355507158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>222.37643947655496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1331,13 +1329,13 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>3.9175250524353293</v>
       </c>
-      <c r="N6" s="50"/>
+      <c r="N6" s="57"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3371.7360687022906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3379.6647846237738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1369,7 +1367,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="58" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1377,7 +1375,7 @@
         <v>0.60342877587596</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1410,13 +1408,13 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>4.7797322735829342</v>
       </c>
-      <c r="N8" s="51"/>
+      <c r="N8" s="58"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>22.010732239274432</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,13 +1444,13 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="58"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>614.30409718115197</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1468,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>5.9338044380202879</v>
       </c>
-      <c r="N10" s="51" t="s">
+      <c r="N10" s="58" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1478,27 +1476,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="51"/>
+      <c r="N11" s="58"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="N12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="N12" s="58"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1508,12 +1506,12 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="48"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="55"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43419</v>
       </c>
@@ -1524,31 +1522,31 @@
         <f>B14-A14</f>
         <v>7</v>
       </c>
-      <c r="N14" s="50"/>
-      <c r="O14" s="48"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N15" s="50"/>
-      <c r="O15" s="48"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
+      <c r="N14" s="57"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="57"/>
+      <c r="O15" s="55"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="48"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="55"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1576,10 +1574,10 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="48"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="57"/>
+      <c r="O17" s="55"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>4089.6</v>
       </c>
@@ -1607,10 +1605,10 @@
       <c r="I18" s="8">
         <v>45280.98</v>
       </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="49"/>
-    </row>
-    <row r="19" spans="1:15" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="N18" s="57"/>
+      <c r="O18" s="56"/>
+    </row>
+    <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
         <v>36</v>
       </c>
@@ -1618,26 +1616,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="N20" s="46" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="N20" s="53" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>119.1799999999986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>61.059999999997764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -1662,9 +1660,9 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="47"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="54"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <f>B7/10</f>
         <v>5768.1</v>
@@ -1698,20 +1696,20 @@
         <v>5702.36</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>157.2546346782988</v>
       </c>
@@ -1783,18 +1781,18 @@
         <v>108.36059165914972</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>3240.9013086150494</v>
       </c>
@@ -1862,37 +1860,37 @@
         <v>178.46253083727152</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="52" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="52"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="B32" s="46"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -1915,12 +1913,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F37" s="44">
         <f>B14</f>
@@ -1943,18 +1941,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="26"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>5705562.0000001695</v>
+        <v>2908253.0000000959</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>71</v>
@@ -1969,12 +1967,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>78659425.000000253</v>
+        <v>81567678.000000358</v>
       </c>
       <c r="G40" s="43">
         <f>A30</f>
@@ -1993,51 +1991,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1236752790.0000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1239661043.0000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>1191799.999999986</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>610599.99999997765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="16">
-        <v>2840530.0000000373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2828011.9999999781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="16">
-        <v>98444546.000000238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101272558.00000021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>57</v>
       </c>
@@ -2045,7 +2043,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>58</v>
       </c>
@@ -2055,6 +2053,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2064,14 +2070,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D553CF-84BF-45DA-B543-E7CAC84946A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A51F20-5A2E-4F24-901B-1906C27BAF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4572" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5028" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +409,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -689,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
@@ -738,7 +744,6 @@
     <xf numFmtId="178" fontId="2" fillId="11" borderId="7" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="2" fillId="11" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
@@ -748,6 +753,24 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,24 +792,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 着色 3" xfId="9" builtinId="38"/>
@@ -1078,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1096,10 +1103,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1119,11 +1126,11 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="57" t="s">
+      <c r="M1" s="53"/>
+      <c r="N1" s="49" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
@@ -1145,31 +1152,31 @@
         <f t="shared" ref="D2:D10" si="0">C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="37">
         <f>A18</f>
-        <v>4089.6</v>
-      </c>
-      <c r="G2" s="38">
+        <v>5768.1</v>
+      </c>
+      <c r="G2" s="37">
         <f>B7/10</f>
-        <v>5768.1</v>
-      </c>
-      <c r="H2" s="39">
+        <v>7941.4</v>
+      </c>
+      <c r="H2" s="38">
         <v>36.68</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="37">
         <f>(G2-F2)/(C14*H2)</f>
-        <v>6.5372332138962479</v>
+        <v>11.850054525627041</v>
       </c>
       <c r="J2">
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="57"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
         <v>8156.767800000036</v>
@@ -1189,27 +1196,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="37">
         <f>B18</f>
-        <v>5950</v>
-      </c>
-      <c r="G3" s="38">
+        <v>7868</v>
+      </c>
+      <c r="G3" s="37">
         <f>B6/10</f>
-        <v>7868</v>
-      </c>
-      <c r="H3" s="39">
+        <v>9250</v>
+      </c>
+      <c r="H3" s="38">
         <v>54</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="37">
         <f>(G3-F3)/(C14*H3)</f>
-        <v>5.0740740740740744</v>
-      </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="57"/>
+        <v>5.1185185185185187</v>
+      </c>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
         <v>123966.10430000002</v>
@@ -1229,27 +1236,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <f>C18</f>
-        <v>4169.26</v>
-      </c>
-      <c r="G4" s="38">
+        <v>6454.45</v>
+      </c>
+      <c r="G4" s="37">
         <f>B10/10</f>
-        <v>6454.45</v>
-      </c>
-      <c r="H4" s="39">
+        <v>8105.8600000000006</v>
+      </c>
+      <c r="H4" s="38">
         <v>24.3</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="37">
         <f>(G4-F4)/(C14*H4)</f>
-        <v>13.434391534391532</v>
-      </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="57" t="s">
+        <v>13.591851851851859</v>
+      </c>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="49" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
@@ -1262,36 +1269,36 @@
         <v>5</v>
       </c>
       <c r="B5" s="29">
-        <v>57023.6</v>
+        <v>106533.7</v>
       </c>
       <c r="C5" s="33">
         <v>57023.6</v>
       </c>
       <c r="D5" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="37" t="s">
+        <v>-49510.1</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <f>D18</f>
-        <v>2821.2400000000002</v>
-      </c>
-      <c r="G5" s="38">
+        <v>4125.7800000000007</v>
+      </c>
+      <c r="G5" s="37">
         <f>B8/10</f>
-        <v>4125.7800000000007</v>
-      </c>
-      <c r="H5" s="39">
+        <v>4901.1400000000003</v>
+      </c>
+      <c r="H5" s="38">
         <v>37.200000000000003</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="37">
         <f>(G5-F5)/(C14*H5)</f>
-        <v>5.0097542242703543</v>
-      </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="57"/>
+        <v>4.1686021505376329</v>
+      </c>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
         <v>222.37643947655496</v>
@@ -1302,34 +1309,34 @@
         <v>11</v>
       </c>
       <c r="B6" s="29">
-        <v>78680</v>
+        <v>92500</v>
       </c>
       <c r="C6" s="33">
         <v>78680</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="40" t="s">
+        <v>-13820</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <f>E18</f>
-        <v>3222.9</v>
-      </c>
-      <c r="G6" s="41">
+        <v>4903.91</v>
+      </c>
+      <c r="G6" s="40">
         <f>B9/10</f>
-        <v>4903.91</v>
-      </c>
-      <c r="H6" s="42">
+        <v>5669.86</v>
+      </c>
+      <c r="H6" s="41">
         <v>61.3</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="40">
         <f>(G6-F6)/(C14*H6)</f>
-        <v>3.9175250524353293</v>
-      </c>
-      <c r="N6" s="57"/>
+        <v>2.4990212071778135</v>
+      </c>
+      <c r="N6" s="49"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
         <v>3379.6647846237738</v>
@@ -1340,14 +1347,14 @@
         <v>12</v>
       </c>
       <c r="B7" s="29">
-        <v>57681</v>
+        <v>79414</v>
       </c>
       <c r="C7" s="33">
         <v>57681</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-21733</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1358,21 +1365,21 @@
       </c>
       <c r="G7">
         <f>B5/10</f>
-        <v>5702.36</v>
+        <v>10653.369999999999</v>
       </c>
       <c r="H7" s="2">
         <v>44</v>
       </c>
       <c r="I7">
         <f>(G7-F7)/(C14*H7)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="58" t="s">
+        <v>22.504590909090904</v>
+      </c>
+      <c r="N7" s="50" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
         <f>I2-I10</f>
-        <v>0.60342877587596</v>
+        <v>5.5281320972965178</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1380,25 +1387,25 @@
         <v>13</v>
       </c>
       <c r="B8" s="29">
-        <v>41257.800000000003</v>
+        <v>49011.4</v>
       </c>
       <c r="C8" s="33">
         <v>41257.800000000003</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7753.5999999999985</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8">
         <f>F7+F4</f>
-        <v>9871.619999999999</v>
+        <v>12156.81</v>
       </c>
       <c r="G8">
         <f>G7+G4</f>
-        <v>12156.81</v>
+        <v>18759.23</v>
       </c>
       <c r="H8" s="2">
         <f>H7+H4</f>
@@ -1406,12 +1413,12 @@
       </c>
       <c r="I8">
         <f>(G8-F8)/(C14*H8)</f>
-        <v>4.7797322735829342</v>
-      </c>
-      <c r="N8" s="58"/>
+        <v>19.33358711566618</v>
+      </c>
+      <c r="N8" s="50"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
-        <v>22.010732239274432</v>
+        <v>35.824349593213554</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1419,35 +1426,35 @@
         <v>14</v>
       </c>
       <c r="B9" s="29">
-        <v>49039.1</v>
+        <v>56698.6</v>
       </c>
       <c r="C9" s="33">
         <v>49039.1</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7659.5</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="12">
         <f>SUM(F2:F6)</f>
-        <v>20253.000000000004</v>
+        <v>29120.240000000002</v>
       </c>
       <c r="G9" s="12">
         <f>SUM(G2:G6)</f>
-        <v>29120.240000000002</v>
+        <v>35868.26</v>
       </c>
       <c r="H9" s="12">
         <f>SUM(H2:H6)</f>
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="58"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
-        <v>614.30409718115197</v>
+        <v>628.11771453509073</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1455,20 +1462,20 @@
         <v>15</v>
       </c>
       <c r="B10" s="30">
-        <v>64544.5</v>
+        <v>81058.600000000006</v>
       </c>
       <c r="C10" s="35">
         <v>64544.5</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-16514.100000000006</v>
       </c>
       <c r="I10">
         <f>(G9-F9)/(H9*C14)</f>
-        <v>5.9338044380202879</v>
-      </c>
-      <c r="N10" s="58" t="s">
+        <v>6.3219224283305229</v>
+      </c>
+      <c r="N10" s="50" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1478,19 +1485,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="58"/>
+      <c r="N11" s="50"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="N12" s="58"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="N12" s="50"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1506,45 +1513,45 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="55"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>43419</v>
+        <v>43426</v>
       </c>
       <c r="B14" s="4">
-        <v>43426</v>
+        <v>43431</v>
       </c>
       <c r="C14" s="3">
         <f>B14-A14</f>
-        <v>7</v>
-      </c>
-      <c r="N14" s="57"/>
-      <c r="O14" s="55"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="49"/>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="57"/>
-      <c r="O15" s="55"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="57" t="s">
+      <c r="N16" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="55"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1574,39 +1581,40 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="57"/>
-      <c r="O17" s="55"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>4089.6</v>
+        <v>5768.1</v>
       </c>
       <c r="B18" s="7">
-        <v>5950</v>
+        <v>7868</v>
       </c>
       <c r="C18" s="7">
-        <v>4169.26</v>
+        <v>6454.45</v>
       </c>
       <c r="D18" s="7">
-        <v>2821.2400000000002</v>
+        <v>4125.7800000000007</v>
       </c>
       <c r="E18" s="7">
-        <v>3222.9</v>
+        <v>4903.91</v>
       </c>
       <c r="F18" s="7">
-        <v>4874.32</v>
+        <v>487.43199999999996</v>
       </c>
       <c r="G18" s="7">
-        <v>14451.3</v>
+        <v>22757.9</v>
       </c>
       <c r="H18" s="7">
         <v>5702.36</v>
       </c>
       <c r="I18" s="8">
-        <v>45280.98</v>
-      </c>
-      <c r="N18" s="57"/>
-      <c r="O18" s="56"/>
+        <f>SUM(A18:H18)</f>
+        <v>58067.932000000001</v>
+      </c>
+      <c r="N18" s="49"/>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1617,17 +1625,17 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="N20" s="53" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="N20" s="45" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
@@ -1660,28 +1668,28 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="54"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <f>B7/10</f>
-        <v>5768.1</v>
+        <v>7941.4</v>
       </c>
       <c r="B22" s="11">
         <f>B6/10</f>
-        <v>7868</v>
+        <v>9250</v>
       </c>
       <c r="C22" s="11">
         <f>B10/10</f>
-        <v>6454.45</v>
+        <v>8105.8600000000006</v>
       </c>
       <c r="D22" s="11">
         <f>B8/10</f>
-        <v>4125.7800000000007</v>
+        <v>4901.1400000000003</v>
       </c>
       <c r="E22" s="11">
         <f>B9/10</f>
-        <v>4903.91</v>
+        <v>5669.86</v>
       </c>
       <c r="F22" s="11">
         <f>B3/10</f>
@@ -1693,21 +1701,21 @@
       </c>
       <c r="H22" s="11">
         <f>B5/10</f>
-        <v>5702.36</v>
+        <v>10653.369999999999</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1744,53 +1752,53 @@
     </row>
     <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>157.2546346782988</v>
+        <v>216.50490730643401</v>
       </c>
       <c r="B26" s="7">
-        <v>145.7037037037037</v>
+        <v>171.2962962962963</v>
       </c>
       <c r="C26" s="7">
-        <v>265.61522633744852</v>
+        <v>333.57448559670786</v>
       </c>
       <c r="D26" s="7">
-        <v>110.90806451612904</v>
+        <v>131.7510752688172</v>
       </c>
       <c r="E26" s="7">
-        <v>79.998531810766721</v>
+        <v>92.493637846655787</v>
       </c>
       <c r="F26" s="7">
-        <v>129.5990909090909</v>
+        <v>242.12204545454543</v>
       </c>
       <c r="G26" s="7">
-        <v>135.24390243902437</v>
+        <v>180.68055771322045</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
-        <v>177.99136163982431</v>
+        <v>274.65929721815519</v>
       </c>
       <c r="K26">
         <f>A26-G26</f>
-        <v>22.010732239274432</v>
+        <v>35.824349593213554</v>
       </c>
       <c r="L26">
         <f>A26-B26</f>
-        <v>11.550930974595104</v>
+        <v>45.208611010137702</v>
       </c>
       <c r="N26">
         <f>C26-A26</f>
-        <v>108.36059165914972</v>
+        <v>117.06957829027385</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1827,50 +1835,50 @@
     </row>
     <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>3240.9013086150494</v>
+        <v>3300.1515812431844</v>
       </c>
       <c r="B30" s="7">
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="C30" s="7">
-        <v>2529.0112757201641</v>
+        <v>2596.9705349794235</v>
       </c>
       <c r="D30" s="7">
-        <v>3054.9868010752689</v>
+        <v>3075.8298118279567</v>
       </c>
       <c r="E30" s="7">
-        <v>2089.9505220228384</v>
+        <v>2102.4456280587274</v>
       </c>
       <c r="F30" s="7">
-        <v>2018.9510454545455</v>
+        <v>2131.4740000000002</v>
       </c>
       <c r="G30" s="7">
-        <v>2626.5972114338974</v>
+        <v>2672.0338667080937</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
-        <v>2200.4219619326504</v>
+        <v>2297.0898975109808</v>
       </c>
       <c r="K30">
         <f>A30-G30</f>
-        <v>614.30409718115197</v>
+        <v>628.11771453509073</v>
       </c>
       <c r="L30">
         <f>A30-B30</f>
-        <v>178.46253083727152</v>
+        <v>212.12021087281391</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="51" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1909,7 +1917,7 @@
       <c r="J36" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="44" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1920,21 +1928,21 @@
       <c r="B37" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="43">
         <f>B14</f>
-        <v>43426</v>
-      </c>
-      <c r="G37" s="43">
+        <v>43431</v>
+      </c>
+      <c r="G37" s="42">
         <f>A26</f>
-        <v>157.2546346782988</v>
-      </c>
-      <c r="I37" s="43">
+        <v>216.50490730643401</v>
+      </c>
+      <c r="I37" s="42">
         <f>K26</f>
-        <v>22.010732239274432</v>
-      </c>
-      <c r="J37" s="43">
+        <v>35.824349593213554</v>
+      </c>
+      <c r="J37" s="42">
         <f>L26</f>
-        <v>11.550930974595104</v>
+        <v>45.208611010137702</v>
       </c>
       <c r="K37">
         <f>O11</f>
@@ -1954,16 +1962,16 @@
       <c r="B39" s="16">
         <v>2908253.0000000959</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="44" t="s">
         <v>68</v>
       </c>
       <c r="J39" t="s">
         <v>69</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="K39" s="44" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1974,17 +1982,17 @@
       <c r="B40" s="16">
         <v>81567678.000000358</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="42">
         <f>A30</f>
-        <v>3240.9013086150494</v>
-      </c>
-      <c r="I40" s="43">
+        <v>3300.1515812431844</v>
+      </c>
+      <c r="I40" s="42">
         <f>K30</f>
-        <v>614.30409718115197</v>
-      </c>
-      <c r="J40" s="43">
+        <v>628.11771453509073</v>
+      </c>
+      <c r="J40" s="42">
         <f>L30</f>
-        <v>178.46253083727152</v>
+        <v>212.12021087281391</v>
       </c>
       <c r="K40">
         <f>O12</f>
@@ -2053,14 +2061,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2070,6 +2070,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A51F20-5A2E-4F24-901B-1906C27BAF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20C35AF-80BF-4BC7-8D59-EBEB737BB484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5028" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5940" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>宝昌</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>年累上网利用小时</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
 </sst>
 </file>
@@ -282,7 +279,7 @@
     <numFmt numFmtId="179" formatCode="#,##0_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +340,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -695,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
@@ -753,6 +757,8 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -792,8 +798,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 着色 3" xfId="9" builtinId="38"/>
@@ -1083,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1102,11 +1107,11 @@
     <col min="15" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1126,19 +1131,23 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="49" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="51" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>290.82530000000958</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>568.49909999998033</v>
+      </c>
+      <c r="P1" s="60">
+        <f>B42/10000</f>
+        <v>119.62000000000117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,15 +1183,15 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="49"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>8156.767800000036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8725.2669000000151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1214,15 +1223,15 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.1185185185185187</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="49"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="51"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>123966.10430000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>124534.60340000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1254,17 +1263,17 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.591851851851859</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="49" t="s">
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="51" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>7.9287159214833585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15.498884950926399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1296,15 +1305,15 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>4.1686021505376329</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="49"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="51"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>222.37643947655496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>237.87532442748133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,7 +1323,7 @@
       <c r="C6" s="33">
         <v>78680</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="45">
         <f t="shared" si="0"/>
         <v>-13820</v>
       </c>
@@ -1336,13 +1345,13 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>2.4990212071778135</v>
       </c>
-      <c r="N6" s="49"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3379.6647846237738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3395.1636695747002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +1361,7 @@
       <c r="C7" s="33">
         <v>57681</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="45">
         <f t="shared" si="0"/>
         <v>-21733</v>
       </c>
@@ -1374,7 +1383,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>22.504590909090904</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="52" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1382,7 +1391,7 @@
         <v>5.5281320972965178</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,7 +1401,7 @@
       <c r="C8" s="33">
         <v>41257.800000000003</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="45">
         <f t="shared" si="0"/>
         <v>-7753.5999999999985</v>
       </c>
@@ -1415,13 +1424,13 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>19.33358711566618</v>
       </c>
-      <c r="N8" s="50"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>35.824349593213554</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,7 +1440,7 @@
       <c r="C9" s="33">
         <v>49039.1</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="45">
         <f t="shared" si="0"/>
         <v>-7659.5</v>
       </c>
@@ -1451,13 +1460,13 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="50"/>
+      <c r="N9" s="52"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>628.11771453509073</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1467,7 +1476,7 @@
       <c r="C10" s="35">
         <v>64544.5</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="46">
         <f t="shared" si="0"/>
         <v>-16514.100000000006</v>
       </c>
@@ -1475,7 +1484,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>6.3219224283305229</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="52" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1483,27 +1492,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="50"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="N12" s="50"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="N12" s="52"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1513,12 +1522,12 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="49" t="s">
+      <c r="N13" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="47"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="49"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43426</v>
       </c>
@@ -1529,29 +1538,29 @@
         <f>B14-A14</f>
         <v>5</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="47"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="49"/>
-      <c r="O15" s="47"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="N14" s="51"/>
+      <c r="O14" s="49"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="51"/>
+      <c r="O15" s="49"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="49" t="s">
+      <c r="N16" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="47"/>
+      <c r="O16" s="49"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1581,8 +1590,8 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="49"/>
-      <c r="O17" s="47"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="49"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -1613,8 +1622,8 @@
         <f>SUM(A18:H18)</f>
         <v>58067.932000000001</v>
       </c>
-      <c r="N18" s="49"/>
-      <c r="O18" s="48"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1625,22 +1634,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="N20" s="45" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="N20" s="47" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>61.059999999997764</v>
+        <v>119.62000000000117</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1668,7 +1677,7 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="46"/>
+      <c r="N21" s="48"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1705,17 +1714,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1790,15 +1799,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1869,16 +1878,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="53"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="53" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1887,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1895,7 +1904,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
@@ -1926,7 +1935,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F37" s="43">
         <f>B14</f>
@@ -1960,7 +1969,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>2908253.0000000959</v>
+        <v>5684990.9999998035</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>71</v>
@@ -1980,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>81567678.000000358</v>
+        <v>87252669.000000149</v>
       </c>
       <c r="G40" s="42">
         <f>A30</f>
@@ -2004,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1239661043.0000002</v>
+        <v>1245346034</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2012,7 +2021,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>610599.99999997765</v>
+        <v>1196200.0000000116</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,7 +2035,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="16">
-        <v>2828011.9999999781</v>
+        <v>2753619.9999998426</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2034,7 +2043,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="16">
-        <v>101272558.00000021</v>
+        <v>104026178.00000006</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20C35AF-80BF-4BC7-8D59-EBEB737BB484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008BC631-F298-4101-83BC-363EDC48C863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5940" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6396" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -759,6 +759,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,28 +799,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 着色 3" xfId="9" builtinId="38"/>
@@ -1090,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -1108,10 +1108,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1131,20 +1131,20 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="51" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="59" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>568.49909999998033</v>
-      </c>
-      <c r="P1" s="60">
+        <v>575.47629999998946</v>
+      </c>
+      <c r="P1" s="47">
         <f>B42/10000</f>
-        <v>119.62000000000117</v>
+        <v>119.87999999999889</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1183,12 +1183,12 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="51"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>8725.2669000000151</v>
+        <v>9300.7432000000063</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1223,12 +1223,12 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.1185185185185187</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="51"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="59"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>124534.60340000001</v>
+        <v>125110.0797</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1263,14 +1263,14 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.591851851851859</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="51" t="s">
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="59" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>15.498884950926399</v>
+        <v>15.689103053434827</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1305,12 +1305,12 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>4.1686021505376329</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>237.87532442748133</v>
+        <v>253.56442748091621</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1345,10 +1345,10 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>2.4990212071778135</v>
       </c>
-      <c r="N6" s="51"/>
+      <c r="N6" s="59"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3395.1636695747002</v>
+        <v>3410.8527726281354</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>22.504590909090904</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="60" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1424,7 +1424,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>19.33358711566618</v>
       </c>
-      <c r="N8" s="52"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>35.824349593213554</v>
@@ -1460,7 +1460,7 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="52"/>
+      <c r="N9" s="60"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>628.11771453509073</v>
@@ -1484,7 +1484,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>6.3219224283305229</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="60" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1494,19 +1494,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="52"/>
+      <c r="N11" s="60"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="N12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1522,10 +1522,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="49"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1538,29 +1538,29 @@
         <f>B14-A14</f>
         <v>5</v>
       </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="49"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="51"/>
-      <c r="O15" s="49"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="51" t="s">
+      <c r="N16" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="49"/>
+      <c r="O16" s="57"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1590,8 +1590,8 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="51"/>
-      <c r="O17" s="49"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="57"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -1622,8 +1622,8 @@
         <f>SUM(A18:H18)</f>
         <v>58067.932000000001</v>
       </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="50"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="58"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1634,22 +1634,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="N20" s="47" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="N20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>119.62000000000117</v>
+        <v>119.87999999999889</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1677,7 +1677,7 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="48"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1714,17 +1714,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1799,15 +1799,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1878,16 +1878,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="48"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="48" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1904,7 +1904,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>5684990.9999998035</v>
+        <v>5754762.9999998948</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>71</v>
@@ -1989,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>87252669.000000149</v>
+        <v>93007432.00000006</v>
       </c>
       <c r="G40" s="42">
         <f>A30</f>
@@ -2013,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1245346034</v>
+        <v>1251100797</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>1196200.0000000116</v>
+        <v>1198799.9999999888</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="16">
-        <v>2753619.9999998426</v>
+        <v>2688353.0000000112</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="16">
-        <v>104026178.00000006</v>
+        <v>106714531.00000006</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2070,6 +2070,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2079,14 +2087,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008BC631-F298-4101-83BC-363EDC48C863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4789AD9-8131-484E-A3A0-254870E0D4EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6396" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6390" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -760,6 +765,24 @@
     <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,24 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1090,28 +1095,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1131,23 +1136,23 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="59" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="52" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>575.47629999998946</v>
+        <v>538.47640000002355</v>
       </c>
       <c r="P1" s="47">
         <f>B42/10000</f>
-        <v>119.87999999999889</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>112.96000000000301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1183,15 +1188,15 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="59"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>9300.7432000000063</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9839.2196000000295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,15 +1228,15 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.1185185185185187</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="59"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>125110.0797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>125648.55610000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,17 +1268,17 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.591851851851859</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="59" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="52" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>15.689103053434827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>14.680381679389955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1305,15 +1310,15 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>4.1686021505376329</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="59"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>253.56442748091621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>268.24480916030615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1345,13 +1350,13 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>2.4990212071778135</v>
       </c>
-      <c r="N6" s="59"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3410.8527726281354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3425.5331543075254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1388,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>22.504590909090904</v>
       </c>
-      <c r="N7" s="60" t="s">
+      <c r="N7" s="53" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1391,7 +1396,7 @@
         <v>5.5281320972965178</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1424,13 +1429,13 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>19.33358711566618</v>
       </c>
-      <c r="N8" s="60"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>35.824349593213554</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1460,13 +1465,13 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="60"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>628.11771453509073</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1489,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>6.3219224283305229</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="53" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1492,27 +1497,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="27"/>
-      <c r="N11" s="60"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="N12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1522,12 +1527,12 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="57"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="50"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43426</v>
       </c>
@@ -1538,31 +1543,31 @@
         <f>B14-A14</f>
         <v>5</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="57"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="59"/>
-      <c r="O15" s="57"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="N14" s="52"/>
+      <c r="O14" s="50"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N15" s="52"/>
+      <c r="O15" s="50"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="59" t="s">
+      <c r="N16" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="57"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1590,10 +1595,10 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="57"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="52"/>
+      <c r="O17" s="50"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>5768.1</v>
       </c>
@@ -1622,10 +1627,10 @@
         <f>SUM(A18:H18)</f>
         <v>58067.932000000001</v>
       </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="58"/>
-    </row>
-    <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="N18" s="52"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" ht="47.25" x14ac:dyDescent="0.2">
       <c r="N19" s="19" t="s">
         <v>36</v>
       </c>
@@ -1633,26 +1638,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="N20" s="55" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="N20" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>119.87999999999889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112.96000000000301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -1677,9 +1682,9 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="56"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="49"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <f>B7/10</f>
         <v>7941.4</v>
@@ -1713,20 +1718,20 @@
         <v>10653.369999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>216.50490730643401</v>
       </c>
@@ -1798,18 +1803,18 @@
         <v>117.06957829027385</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>3300.1515812431844</v>
       </c>
@@ -1877,37 +1882,37 @@
         <v>212.12021087281391</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="48"/>
-    </row>
-    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
+      <c r="B32" s="54"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -1930,7 +1935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
@@ -1958,18 +1963,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="26"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>5754762.9999998948</v>
+        <v>5384764.0000002356</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>71</v>
@@ -1984,12 +1989,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>93007432.00000006</v>
+        <v>98392196.000000298</v>
       </c>
       <c r="G40" s="42">
         <f>A30</f>
@@ -2008,29 +2013,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1251100797</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1256485561.0000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>1198799.9999999888</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1129600.00000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
@@ -2038,7 +2043,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
@@ -2046,13 +2051,13 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>57</v>
       </c>
@@ -2060,7 +2065,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>58</v>
       </c>
@@ -2070,14 +2075,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2087,6 +2084,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4789AD9-8131-484E-A3A0-254870E0D4EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950EB70-D372-4C15-A6C5-DD4BEAA93ECB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6390" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,6 +765,27 @@
     <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,27 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1113,10 +1113,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1136,20 +1136,20 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="52" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="59" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>538.47640000002355</v>
+        <v>358.15379999999732</v>
       </c>
       <c r="P1" s="47">
         <f>B42/10000</f>
-        <v>112.96000000000301</v>
+        <v>76.719999999995338</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1188,12 +1188,12 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="52"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>9839.2196000000295</v>
+        <v>358.15379999999732</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1228,12 +1228,12 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.1185185185185187</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="52"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="59"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>125648.55610000003</v>
+        <v>126006.70990000003</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1268,14 +1268,14 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.591851851851859</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="52" t="s">
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="59" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>14.680381679389955</v>
+        <v>9.7642802617229361</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1310,12 +1310,12 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>4.1686021505376329</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="52"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>268.24480916030615</v>
+        <v>9.7642802617229361</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1350,10 +1350,10 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>2.4990212071778135</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="59"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3425.5331543075254</v>
+        <v>3435.2974345692483</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>22.504590909090904</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="60" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1429,7 +1429,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>19.33358711566618</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>35.824349593213554</v>
@@ -1465,7 +1465,7 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="53"/>
+      <c r="N9" s="60"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>628.11771453509073</v>
@@ -1489,7 +1489,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>6.3219224283305229</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="60" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1499,19 +1499,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="27"/>
-      <c r="N11" s="53"/>
+      <c r="N11" s="60"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="N12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1527,10 +1527,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="50"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1543,29 +1543,29 @@
         <f>B14-A14</f>
         <v>5</v>
       </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="50"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N15" s="52"/>
-      <c r="O15" s="50"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="50"/>
+      <c r="O16" s="57"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1595,8 +1595,8 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="50"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="57"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1627,8 +1627,8 @@
         <f>SUM(A18:H18)</f>
         <v>58067.932000000001</v>
       </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="51"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="58"/>
     </row>
     <row r="19" spans="1:15" ht="47.25" x14ac:dyDescent="0.2">
       <c r="N19" s="19" t="s">
@@ -1639,22 +1639,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="N20" s="48" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="N20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>112.96000000000301</v>
+        <v>76.719999999995338</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="49"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -1719,17 +1719,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -1804,15 +1804,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1883,16 +1883,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="54"/>
+      <c r="B32" s="48"/>
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="48" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1130</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1909,7 +1909,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>5384764.0000002356</v>
+        <v>3581537.999999973</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>71</v>
@@ -1994,7 +1994,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>98392196.000000298</v>
+        <v>3581537.999999973</v>
       </c>
       <c r="G40" s="42">
         <f>A30</f>
@@ -2018,7 +2018,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1256485561.0000002</v>
+        <v>1260067099.0000002</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2026,7 +2026,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>1129600.00000003</v>
+        <v>767199.99999995343</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -2075,6 +2075,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2084,14 +2092,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950EB70-D372-4C15-A6C5-DD4BEAA93ECB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F90D6-345D-4BD2-A9B5-7869C3E21C78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6390" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6852" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>宝昌</t>
   </si>
@@ -271,6 +266,9 @@
   </si>
   <si>
     <t>年累上网利用小时</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -765,6 +763,24 @@
     <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,24 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1095,28 +1093,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1136,23 +1134,23 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="59" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="52" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>358.15379999999732</v>
+        <v>279.9860000000009</v>
       </c>
       <c r="P1" s="47">
         <f>B42/10000</f>
-        <v>76.719999999995338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>59.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1188,15 +1186,15 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="59"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>358.15379999999732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>638.1397999999981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,15 +1226,15 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.1185185185185187</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="59"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>126006.70990000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>126286.69590000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1268,17 +1266,17 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.591851851851859</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="59" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="52" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>9.7642802617229361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>7.6332061068702535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1310,15 +1308,15 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>4.1686021505376329</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="59"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>9.7642802617229361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17.397486368593189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1350,13 +1348,13 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>2.4990212071778135</v>
       </c>
-      <c r="N6" s="59"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3435.2974345692483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3442.9306406761184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1386,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>22.504590909090904</v>
       </c>
-      <c r="N7" s="60" t="s">
+      <c r="N7" s="53" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1396,7 +1394,7 @@
         <v>5.5281320972965178</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1429,13 +1427,13 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>19.33358711566618</v>
       </c>
-      <c r="N8" s="60"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>35.824349593213554</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1465,13 +1463,13 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="60"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>628.11771453509073</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1489,7 +1487,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>6.3219224283305229</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="53" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1497,27 +1495,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="60"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="N12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1527,12 +1525,12 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="57"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="50"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43426</v>
       </c>
@@ -1543,31 +1541,31 @@
         <f>B14-A14</f>
         <v>5</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="57"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N15" s="59"/>
-      <c r="O15" s="57"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="N14" s="52"/>
+      <c r="O14" s="50"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="52"/>
+      <c r="O15" s="50"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="59" t="s">
+      <c r="N16" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="57"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1595,10 +1593,10 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="57"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="52"/>
+      <c r="O17" s="50"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>5768.1</v>
       </c>
@@ -1627,10 +1625,10 @@
         <f>SUM(A18:H18)</f>
         <v>58067.932000000001</v>
       </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="58"/>
-    </row>
-    <row r="19" spans="1:15" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="N18" s="52"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
         <v>36</v>
       </c>
@@ -1638,26 +1636,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+    <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="N20" s="55" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="N20" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>76.719999999995338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>59.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -1682,9 +1680,9 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="56"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="49"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <f>B7/10</f>
         <v>7941.4</v>
@@ -1718,20 +1716,20 @@
         <v>10653.369999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +1762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>216.50490730643401</v>
       </c>
@@ -1803,18 +1801,18 @@
         <v>117.06957829027385</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1845,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>3300.1515812431844</v>
       </c>
@@ -1882,37 +1880,37 @@
         <v>212.12021087281391</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="48"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="B32" s="54"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
@@ -1935,12 +1933,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F37" s="43">
         <f>B14</f>
@@ -1963,18 +1961,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="26"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>3581537.999999973</v>
+        <v>2799860.0000000088</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>71</v>
@@ -1989,12 +1987,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>3581537.999999973</v>
+        <v>6381397.9999999814</v>
       </c>
       <c r="G40" s="42">
         <f>A30</f>
@@ -2013,29 +2011,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1260067099.0000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1262866959.0000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>767199.99999995343</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>590500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
@@ -2051,21 +2049,21 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="16">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>58</v>
       </c>
@@ -2075,14 +2073,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2092,6 +2082,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F90D6-345D-4BD2-A9B5-7869C3E21C78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521ED62-08DF-4CF4-99BC-E5D88D50854D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6852" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7308" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,6 +763,27 @@
     <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -780,27 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1093,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -1111,10 +1111,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1134,20 +1134,20 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="52" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="59" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>279.9860000000009</v>
+        <v>286.95470000000012</v>
       </c>
       <c r="P1" s="47">
         <f>B42/10000</f>
-        <v>59.05</v>
+        <v>60.420000000001174</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1186,12 +1186,12 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="52"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>638.1397999999981</v>
+        <v>925.09449999999811</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1226,12 +1226,12 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.1185185185185187</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="52"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="59"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>126286.69590000002</v>
+        <v>126573.65060000002</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1266,14 +1266,14 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.591851851851859</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="52" t="s">
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="59" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>7.6332061068702535</v>
+        <v>7.823192475463471</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1308,12 +1308,12 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>4.1686021505376329</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="52"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>17.397486368593189</v>
+        <v>25.220678844056657</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1348,10 +1348,10 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>2.4990212071778135</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="59"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3442.9306406761184</v>
+        <v>3450.7538331515821</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>22.504590909090904</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="60" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1427,7 +1427,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>19.33358711566618</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>35.824349593213554</v>
@@ -1463,7 +1463,7 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="53"/>
+      <c r="N9" s="60"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>628.11771453509073</v>
@@ -1487,7 +1487,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>6.3219224283305229</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="60" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1497,19 +1497,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="53"/>
+      <c r="N11" s="60"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="N12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1525,10 +1525,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="50"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1541,29 +1541,29 @@
         <f>B14-A14</f>
         <v>5</v>
       </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="50"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="52"/>
-      <c r="O15" s="50"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="50"/>
+      <c r="O16" s="57"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1593,8 +1593,8 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="50"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="57"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -1625,8 +1625,8 @@
         <f>SUM(A18:H18)</f>
         <v>58067.932000000001</v>
       </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="51"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="58"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1637,22 +1637,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="N20" s="48" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="N20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>59.05</v>
+        <v>60.420000000001174</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1680,7 +1680,7 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="49"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1717,17 +1717,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1802,15 +1802,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1881,16 +1881,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="54"/>
+      <c r="B32" s="48"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="48" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1907,7 +1907,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
@@ -1915,7 +1915,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
         <v>66</v>
@@ -1938,7 +1938,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F37" s="43">
         <f>B14</f>
@@ -1972,7 +1972,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>2799860.0000000088</v>
+        <v>2869547.0000000009</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>71</v>
@@ -1992,7 +1992,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>6381397.9999999814</v>
+        <v>9250944.9999999814</v>
       </c>
       <c r="G40" s="42">
         <f>A30</f>
@@ -2016,7 +2016,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1262866959.0000002</v>
+        <v>1265736506.0000002</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>590500</v>
+        <v>604200.00000001176</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2073,6 +2073,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2082,14 +2090,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521ED62-08DF-4CF4-99BC-E5D88D50854D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E8A5DA-E5BC-4D89-BBFB-B3F74CB199A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7308" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7764" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>宝昌</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>年累上网利用小时</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
 </sst>
 </file>
@@ -763,6 +760,24 @@
     <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,24 +798,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1093,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -1111,10 +1108,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1134,20 +1131,20 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="59" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="52" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>286.95470000000012</v>
+        <v>557.06170000000134</v>
       </c>
       <c r="P1" s="47">
         <f>B42/10000</f>
-        <v>60.420000000001174</v>
+        <v>117.97000000000116</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1186,12 +1183,12 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="59"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>925.09449999999811</v>
+        <v>1482.1561999999997</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1226,12 +1223,12 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.1185185185185187</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="59"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>126573.65060000002</v>
+        <v>127130.71230000003</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1266,14 +1263,14 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.591851851851859</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="59" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="52" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>7.823192475463471</v>
+        <v>15.187069247546383</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1308,12 +1305,12 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>4.1686021505376329</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="59"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>25.220678844056657</v>
+        <v>40.407748091603047</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1348,10 +1345,10 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>2.4990212071778135</v>
       </c>
-      <c r="N6" s="59"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3450.7538331515821</v>
+        <v>3465.9409023991284</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1386,7 +1383,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>22.504590909090904</v>
       </c>
-      <c r="N7" s="60" t="s">
+      <c r="N7" s="53" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1427,7 +1424,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>19.33358711566618</v>
       </c>
-      <c r="N8" s="60"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>35.824349593213554</v>
@@ -1463,7 +1460,7 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="60"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>628.11771453509073</v>
@@ -1487,7 +1484,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>6.3219224283305229</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="53" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1497,19 +1494,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="60"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="N12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1525,10 +1522,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="57"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1541,29 +1538,29 @@
         <f>B14-A14</f>
         <v>5</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="57"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="59"/>
-      <c r="O15" s="57"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="50"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="59" t="s">
+      <c r="N16" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="57"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1593,8 +1590,8 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="57"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -1625,8 +1622,8 @@
         <f>SUM(A18:H18)</f>
         <v>58067.932000000001</v>
       </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="58"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1637,22 +1634,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="N20" s="55" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="N20" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>60.420000000001174</v>
+        <v>117.97000000000116</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1680,7 +1677,7 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="56"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1717,17 +1714,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1802,15 +1799,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1881,16 +1878,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="54"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="54" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1899,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1907,7 +1904,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
@@ -1915,7 +1912,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
         <v>66</v>
@@ -1972,7 +1969,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>2869547.0000000009</v>
+        <v>5570617.000000013</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>71</v>
@@ -1992,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>9250944.9999999814</v>
+        <v>14821561.999999996</v>
       </c>
       <c r="G40" s="42">
         <f>A30</f>
@@ -2016,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1265736506.0000002</v>
+        <v>1271307123.0000002</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2024,7 +2021,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>604200.00000001176</v>
+        <v>1179700.0000000116</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2073,14 +2070,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2090,6 +2079,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E8A5DA-E5BC-4D89-BBFB-B3F74CB199A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019B4A1-AC53-4317-BEDC-7157403B4AC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7764" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8220" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>宝昌</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>年累上网利用小时</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -760,6 +763,27 @@
     <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,27 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1108,10 +1111,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1131,20 +1134,20 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="52" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="59" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>557.06170000000134</v>
+        <v>289.67149999999992</v>
       </c>
       <c r="P1" s="47">
         <f>B42/10000</f>
-        <v>117.97000000000116</v>
+        <v>60.659999999997673</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1183,12 +1186,12 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="52"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>1482.1561999999997</v>
+        <v>1771.8276999999996</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1223,12 +1226,12 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.1185185185185187</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="52"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="59"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>127130.71230000003</v>
+        <v>127420.38380000003</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1263,14 +1266,14 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.591851851851859</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="52" t="s">
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="59" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>15.187069247546383</v>
+        <v>7.8972600872410013</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1305,12 +1308,12 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>4.1686021505376329</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="52"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>40.407748091603047</v>
+        <v>48.305008178844048</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1345,10 +1348,10 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>2.4990212071778135</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="59"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3465.9409023991284</v>
+        <v>3473.8381624863691</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1383,7 +1386,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>22.504590909090904</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="60" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1424,7 +1427,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>19.33358711566618</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>35.824349593213554</v>
@@ -1460,7 +1463,7 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="53"/>
+      <c r="N9" s="60"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>628.11771453509073</v>
@@ -1484,7 +1487,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>6.3219224283305229</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="60" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1494,19 +1497,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="53"/>
+      <c r="N11" s="60"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="N12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1522,10 +1525,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="50"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1538,29 +1541,29 @@
         <f>B14-A14</f>
         <v>5</v>
       </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="50"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="52"/>
-      <c r="O15" s="50"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="50"/>
+      <c r="O16" s="57"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1590,8 +1593,8 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="50"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="57"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -1622,8 +1625,8 @@
         <f>SUM(A18:H18)</f>
         <v>58067.932000000001</v>
       </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="51"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="58"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1634,22 +1637,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="N20" s="48" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="N20" s="55" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>117.97000000000116</v>
+        <v>60.659999999997673</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1677,7 +1680,7 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="49"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1714,17 +1717,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1799,15 +1802,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1878,16 +1881,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="54"/>
+      <c r="B32" s="48"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="48" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1896,7 +1899,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1904,7 +1907,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
@@ -1912,7 +1915,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
         <v>66</v>
@@ -1969,7 +1972,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>5570617.000000013</v>
+        <v>2896714.9999999991</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>71</v>
@@ -1989,7 +1992,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>14821561.999999996</v>
+        <v>17718276.999999996</v>
       </c>
       <c r="G40" s="42">
         <f>A30</f>
@@ -2013,7 +2016,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1271307123.0000002</v>
+        <v>1274203838.0000002</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2021,7 +2024,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>1179700.0000000116</v>
+        <v>606599.99999997672</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2070,6 +2073,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2079,14 +2090,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019B4A1-AC53-4317-BEDC-7157403B4AC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB68B892-1AFF-432E-861C-919B7135D39E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8220" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9132" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1143,11 +1143,11 @@
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
-        <v>289.67149999999992</v>
+        <v>288.85300000000001</v>
       </c>
       <c r="P1" s="47">
         <f>B42/10000</f>
-        <v>60.659999999997673</v>
+        <v>60.530000000004655</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
       <c r="N2" s="59"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
-        <v>1771.8276999999996</v>
+        <v>2060.6806999999994</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
       <c r="N3" s="59"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
-        <v>127420.38380000003</v>
+        <v>127709.23680000003</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="O4" s="21">
         <f>O1/36.68</f>
-        <v>7.8972600872410013</v>
+        <v>7.8749454743729554</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       <c r="N5" s="59"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>48.305008178844048</v>
+        <v>56.179953653216998</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1351,7 +1351,7 @@
       <c r="N6" s="59"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>3473.8381624863691</v>
+        <v>3481.7131079607425</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>60.659999999997673</v>
+        <v>60.530000000004655</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1899,7 +1899,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="14">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1907,7 +1907,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="16">
-        <v>2896714.9999999991</v>
+        <v>2888530</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>71</v>
@@ -1992,7 +1992,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="16">
-        <v>17718276.999999996</v>
+        <v>20606806.999999996</v>
       </c>
       <c r="G40" s="42">
         <f>A30</f>
@@ -2016,7 +2016,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="16">
-        <v>1274203838.0000002</v>
+        <v>1277092368.0000002</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="16">
-        <v>606599.99999997672</v>
+        <v>605300.00000004657</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB68B892-1AFF-432E-861C-919B7135D39E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFFE93-82E6-41F2-B9CB-9C43B2BA19BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9132" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9588" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,6 +763,24 @@
     <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,24 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1111,10 +1111,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1134,11 +1134,11 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="59" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="52" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="P1" s="47">
         <f>B42/10000</f>
-        <v>60.530000000004655</v>
+        <v>120.879999999999</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1186,9 +1186,9 @@
         <f>RANK(I2,(I2:I6),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="59"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
         <v>2060.6806999999994</v>
@@ -1226,9 +1226,9 @@
         <f>(G3-F3)/(C14*H3)</f>
         <v>5.1185185185185187</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="59"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
         <v>127709.23680000003</v>
@@ -1266,9 +1266,9 @@
         <f>(G4-F4)/(C14*H4)</f>
         <v>13.591851851851859</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="59" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="52" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
@@ -1308,9 +1308,9 @@
         <f>(G5-F5)/(C14*H5)</f>
         <v>4.1686021505376329</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="59"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
         <v>56.179953653216998</v>
@@ -1348,7 +1348,7 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>2.4990212071778135</v>
       </c>
-      <c r="N6" s="59"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
         <v>3481.7131079607425</v>
@@ -1386,7 +1386,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>22.504590909090904</v>
       </c>
-      <c r="N7" s="60" t="s">
+      <c r="N7" s="53" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
@@ -1427,7 +1427,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>19.33358711566618</v>
       </c>
-      <c r="N8" s="60"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>35.824349593213554</v>
@@ -1463,7 +1463,7 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="60"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>628.11771453509073</v>
@@ -1487,7 +1487,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>6.3219224283305229</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="53" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1497,19 +1497,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="60"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="N12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1525,10 +1525,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="57"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1541,29 +1541,29 @@
         <f>B14-A14</f>
         <v>5</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="57"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="59"/>
-      <c r="O15" s="57"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="50"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="59" t="s">
+      <c r="N16" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="57"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1593,8 +1593,8 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="57"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -1625,8 +1625,8 @@
         <f>SUM(A18:H18)</f>
         <v>58067.932000000001</v>
       </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="58"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1637,22 +1637,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="N20" s="55" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="N20" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
         <f>B42/10000</f>
-        <v>60.530000000004655</v>
+        <v>120.879999999999</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1680,7 +1680,7 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="56"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1717,17 +1717,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1802,15 +1802,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1881,16 +1881,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="54"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="54" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2023,8 +2023,8 @@
       <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="16">
-        <v>605300.00000004657</v>
+      <c r="B42">
+        <v>1208799.99999999</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2073,14 +2073,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2090,6 +2082,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFFE93-82E6-41F2-B9CB-9C43B2BA19BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CAE778-F278-4C57-AE67-D599D5C9C724}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9588" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10500" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -702,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
@@ -750,7 +750,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="9" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="2" fillId="11" borderId="7" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="11" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
@@ -1093,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1111,10 +1110,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1134,18 +1133,18 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="52" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="51" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
         <v>288.85300000000001</v>
       </c>
-      <c r="P1" s="47">
+      <c r="P1" s="46">
         <f>B42/10000</f>
         <v>120.879999999999</v>
       </c>
@@ -1155,40 +1154,40 @@
         <v>8</v>
       </c>
       <c r="B2" s="28">
-        <v>2955223.8</v>
+        <v>102928.9</v>
       </c>
       <c r="C2" s="33">
-        <v>2955223.8</v>
+        <v>0</v>
       </c>
       <c r="D2" s="34">
         <f t="shared" ref="D2:D10" si="0">C2-B2</f>
+        <v>-102928.9</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="37">
+      <c r="F2" s="36">
         <f>A18</f>
-        <v>5768.1</v>
-      </c>
-      <c r="G2" s="37">
+        <v>7941.4</v>
+      </c>
+      <c r="G2" s="36">
         <f>B7/10</f>
-        <v>7941.4</v>
-      </c>
-      <c r="H2" s="38">
+        <v>2000.9</v>
+      </c>
+      <c r="H2" s="37">
         <v>36.68</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="36">
         <f>(G2-F2)/(C14*H2)</f>
-        <v>11.850054525627041</v>
+        <v>-26.992457288258816</v>
       </c>
       <c r="J2">
         <f>RANK(I2,(I2:I6),0)</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="52"/>
+        <v>4</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
         <v>2060.6806999999994</v>
@@ -1199,36 +1198,36 @@
         <v>9</v>
       </c>
       <c r="B3" s="29">
-        <v>4874.32</v>
+        <v>29964</v>
       </c>
       <c r="C3" s="33">
-        <v>4874.32</v>
+        <v>0</v>
       </c>
       <c r="D3" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="36" t="s">
+        <v>-29964</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="36">
         <f>B18</f>
-        <v>7868</v>
-      </c>
-      <c r="G3" s="37">
+        <v>9250</v>
+      </c>
+      <c r="G3" s="36">
         <f>B6/10</f>
-        <v>9250</v>
-      </c>
-      <c r="H3" s="38">
+        <v>1573</v>
+      </c>
+      <c r="H3" s="37">
         <v>54</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="36">
         <f>(G3-F3)/(C14*H3)</f>
-        <v>5.1185185185185187</v>
-      </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="52"/>
+        <v>-23.694444444444443</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="51"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
         <v>127709.23680000003</v>
@@ -1239,36 +1238,36 @@
         <v>10</v>
       </c>
       <c r="B4" s="29">
-        <v>227579</v>
+        <v>7052.65</v>
       </c>
       <c r="C4" s="33">
-        <v>227579</v>
+        <v>0</v>
       </c>
       <c r="D4" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="36" t="s">
+        <v>-7052.65</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <f>C18</f>
-        <v>6454.45</v>
-      </c>
-      <c r="G4" s="37">
+        <v>8105.8600000000006</v>
+      </c>
+      <c r="G4" s="36">
         <f>B10/10</f>
-        <v>8105.8600000000006</v>
-      </c>
-      <c r="H4" s="38">
+        <v>1207.3600000000001</v>
+      </c>
+      <c r="H4" s="37">
         <v>24.3</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <f>(G4-F4)/(C14*H4)</f>
-        <v>13.591851851851859</v>
-      </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="52" t="s">
+        <v>-47.31481481481481</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="51" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
@@ -1281,36 +1280,36 @@
         <v>5</v>
       </c>
       <c r="B5" s="29">
-        <v>106533.7</v>
+        <v>24513.3</v>
       </c>
       <c r="C5" s="33">
-        <v>57023.6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="34">
         <f t="shared" si="0"/>
-        <v>-49510.1</v>
-      </c>
-      <c r="E5" s="36" t="s">
+        <v>-24513.3</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <f>D18</f>
-        <v>4125.7800000000007</v>
-      </c>
-      <c r="G5" s="37">
+        <v>4901.1400000000003</v>
+      </c>
+      <c r="G5" s="36">
         <f>B8/10</f>
-        <v>4901.1400000000003</v>
-      </c>
-      <c r="H5" s="38">
+        <v>1443.83</v>
+      </c>
+      <c r="H5" s="37">
         <v>37.200000000000003</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <f>(G5-F5)/(C14*H5)</f>
-        <v>4.1686021505376329</v>
-      </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="52"/>
+        <v>-15.489740143369175</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="51"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
         <v>56.179953653216998</v>
@@ -1321,34 +1320,34 @@
         <v>11</v>
       </c>
       <c r="B6" s="29">
-        <v>92500</v>
+        <v>15730</v>
       </c>
       <c r="C6" s="33">
-        <v>78680</v>
-      </c>
-      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="D6" s="44">
         <f t="shared" si="0"/>
-        <v>-13820</v>
-      </c>
-      <c r="E6" s="39" t="s">
+        <v>-15730</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <f>E18</f>
-        <v>4903.91</v>
-      </c>
-      <c r="G6" s="40">
+        <v>5669.86</v>
+      </c>
+      <c r="G6" s="39">
         <f>B9/10</f>
-        <v>5669.86</v>
-      </c>
-      <c r="H6" s="41">
+        <v>1555.05</v>
+      </c>
+      <c r="H6" s="40">
         <v>61.3</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <f>(G6-F6)/(C14*H6)</f>
-        <v>2.4990212071778135</v>
-      </c>
-      <c r="N6" s="52"/>
+        <v>-11.18762914627515</v>
+      </c>
+      <c r="N6" s="51"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
         <v>3481.7131079607425</v>
@@ -1359,39 +1358,39 @@
         <v>12</v>
       </c>
       <c r="B7" s="29">
-        <v>79414</v>
+        <v>20009</v>
       </c>
       <c r="C7" s="33">
-        <v>57681</v>
-      </c>
-      <c r="D7" s="45">
+        <v>0</v>
+      </c>
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
-        <v>-21733</v>
+        <v>-20009</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7">
         <f>H18</f>
-        <v>5702.36</v>
+        <v>10653.369999999999</v>
       </c>
       <c r="G7">
         <f>B5/10</f>
-        <v>10653.369999999999</v>
+        <v>2451.33</v>
       </c>
       <c r="H7" s="2">
         <v>44</v>
       </c>
       <c r="I7">
         <f>(G7-F7)/(C14*H7)</f>
-        <v>22.504590909090904</v>
-      </c>
-      <c r="N7" s="53" t="s">
+        <v>-31.068333333333328</v>
+      </c>
+      <c r="N7" s="52" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
         <f>I2-I10</f>
-        <v>5.5281320972965178</v>
+        <v>-5.0636895660678221</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1399,25 +1398,25 @@
         <v>13</v>
       </c>
       <c r="B8" s="29">
-        <v>49011.4</v>
+        <v>14438.3</v>
       </c>
       <c r="C8" s="33">
-        <v>41257.800000000003</v>
-      </c>
-      <c r="D8" s="45">
+        <v>0</v>
+      </c>
+      <c r="D8" s="44">
         <f t="shared" si="0"/>
-        <v>-7753.5999999999985</v>
+        <v>-14438.3</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8">
         <f>F7+F4</f>
-        <v>12156.81</v>
+        <v>18759.23</v>
       </c>
       <c r="G8">
         <f>G7+G4</f>
-        <v>18759.23</v>
+        <v>3658.69</v>
       </c>
       <c r="H8" s="2">
         <f>H7+H4</f>
@@ -1425,12 +1424,12 @@
       </c>
       <c r="I8">
         <f>(G8-F8)/(C14*H8)</f>
-        <v>19.33358711566618</v>
-      </c>
-      <c r="N8" s="53"/>
+        <v>-36.848560273304052</v>
+      </c>
+      <c r="N8" s="52"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
-        <v>35.824349593213554</v>
+        <v>14.813213134128304</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1438,35 +1437,35 @@
         <v>14</v>
       </c>
       <c r="B9" s="29">
-        <v>56698.6</v>
+        <v>15550.5</v>
       </c>
       <c r="C9" s="33">
-        <v>49039.1</v>
-      </c>
-      <c r="D9" s="45">
+        <v>0</v>
+      </c>
+      <c r="D9" s="44">
         <f t="shared" si="0"/>
-        <v>-7659.5</v>
+        <v>-15550.5</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="12">
         <f>SUM(F2:F6)</f>
-        <v>29120.240000000002</v>
+        <v>35868.26</v>
       </c>
       <c r="G9" s="12">
         <f>SUM(G2:G6)</f>
-        <v>35868.26</v>
+        <v>7780.14</v>
       </c>
       <c r="H9" s="12">
         <f>SUM(H2:H6)</f>
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="53"/>
+      <c r="N9" s="52"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
-        <v>628.11771453509073</v>
+        <v>681.870082761719</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1474,42 +1473,42 @@
         <v>15</v>
       </c>
       <c r="B10" s="30">
-        <v>81058.600000000006</v>
-      </c>
-      <c r="C10" s="35">
-        <v>64544.5</v>
-      </c>
-      <c r="D10" s="46">
+        <v>12073.6</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="45">
         <f t="shared" si="0"/>
-        <v>-16514.100000000006</v>
+        <v>-12073.6</v>
       </c>
       <c r="I10">
         <f>(G9-F9)/(H9*C14)</f>
-        <v>6.3219224283305229</v>
-      </c>
-      <c r="N10" s="53" t="s">
+        <v>-21.928767722190994</v>
+      </c>
+      <c r="N10" s="52" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
         <f>RANK(I2,(I2:I6),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="53"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="N12" s="53"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="N12" s="52"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1525,45 +1524,45 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="50"/>
+      <c r="O13" s="49"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>43426</v>
+        <v>43435</v>
       </c>
       <c r="B14" s="4">
-        <v>43431</v>
+        <v>43441</v>
       </c>
       <c r="C14" s="3">
         <f>B14-A14</f>
-        <v>5</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="50"/>
+        <v>6</v>
+      </c>
+      <c r="N14" s="51"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="52"/>
-      <c r="O15" s="50"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="50"/>
+      <c r="O16" s="49"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1593,24 +1592,24 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="50"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="49"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>5768.1</v>
+        <v>7941.4</v>
       </c>
       <c r="B18" s="7">
-        <v>7868</v>
+        <v>9250</v>
       </c>
       <c r="C18" s="7">
-        <v>6454.45</v>
+        <v>8105.8600000000006</v>
       </c>
       <c r="D18" s="7">
-        <v>4125.7800000000007</v>
+        <v>4901.1400000000003</v>
       </c>
       <c r="E18" s="7">
-        <v>4903.91</v>
+        <v>5669.86</v>
       </c>
       <c r="F18" s="7">
         <v>487.43199999999996</v>
@@ -1619,14 +1618,14 @@
         <v>22757.9</v>
       </c>
       <c r="H18" s="7">
-        <v>5702.36</v>
+        <v>10653.369999999999</v>
       </c>
       <c r="I18" s="8">
         <f>SUM(A18:H18)</f>
-        <v>58067.932000000001</v>
-      </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="51"/>
+        <v>69766.962</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1637,17 +1636,17 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="N20" s="48" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="N20" s="47" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
@@ -1680,54 +1679,54 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="49"/>
+      <c r="N21" s="48"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <f>B7/10</f>
-        <v>7941.4</v>
+        <v>2000.9</v>
       </c>
       <c r="B22" s="11">
         <f>B6/10</f>
-        <v>9250</v>
+        <v>1573</v>
       </c>
       <c r="C22" s="11">
         <f>B10/10</f>
-        <v>8105.8600000000006</v>
+        <v>1207.3600000000001</v>
       </c>
       <c r="D22" s="11">
         <f>B8/10</f>
-        <v>4901.1400000000003</v>
+        <v>1443.83</v>
       </c>
       <c r="E22" s="11">
         <f>B9/10</f>
-        <v>5669.86</v>
+        <v>1555.05</v>
       </c>
       <c r="F22" s="11">
         <f>B3/10</f>
-        <v>487.43199999999996</v>
+        <v>2996.4</v>
       </c>
       <c r="G22" s="11">
         <f>B4/10</f>
-        <v>22757.9</v>
+        <v>705.26499999999999</v>
       </c>
       <c r="H22" s="11">
         <f>B5/10</f>
-        <v>10653.369999999999</v>
+        <v>2451.33</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1764,53 +1763,53 @@
     </row>
     <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>216.50490730643401</v>
+        <v>54.55016357688114</v>
       </c>
       <c r="B26" s="7">
-        <v>171.2962962962963</v>
+        <v>29.12962962962963</v>
       </c>
       <c r="C26" s="7">
-        <v>333.57448559670786</v>
+        <v>49.685596707818931</v>
       </c>
       <c r="D26" s="7">
-        <v>131.7510752688172</v>
+        <v>38.812634408602143</v>
       </c>
       <c r="E26" s="7">
-        <v>92.493637846655787</v>
+        <v>25.367862969004893</v>
       </c>
       <c r="F26" s="7">
-        <v>242.12204545454543</v>
+        <v>55.712045454545454</v>
       </c>
       <c r="G26" s="7">
-        <v>180.68055771322045</v>
+        <v>39.736950442752835</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
-        <v>274.65929721815519</v>
+        <v>53.567935578330896</v>
       </c>
       <c r="K26">
         <f>A26-G26</f>
-        <v>35.824349593213554</v>
+        <v>14.813213134128304</v>
       </c>
       <c r="L26">
         <f>A26-B26</f>
-        <v>45.208611010137702</v>
+        <v>25.42053394725151</v>
       </c>
       <c r="N26">
         <f>C26-A26</f>
-        <v>117.06957829027385</v>
+        <v>-4.8645668690622088</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1847,50 +1846,50 @@
     </row>
     <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>3300.1515812431844</v>
+        <v>3400.1095965103596</v>
       </c>
       <c r="B30" s="7">
-        <v>3088.0313703703705</v>
+        <v>3117.1610000000005</v>
       </c>
       <c r="C30" s="7">
-        <v>2596.9705349794235</v>
+        <v>2646.6561316872426</v>
       </c>
       <c r="D30" s="7">
-        <v>3075.8298118279567</v>
+        <v>3114.642446236559</v>
       </c>
       <c r="E30" s="7">
-        <v>2102.4456280587274</v>
+        <v>2127.8134910277322</v>
       </c>
       <c r="F30" s="7">
-        <v>2131.4740000000002</v>
+        <v>2187.1860454545454</v>
       </c>
       <c r="G30" s="7">
-        <v>2672.0338667080937</v>
+        <v>2718.2395137486405</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
-        <v>2297.0898975109808</v>
+        <v>2350.6578330893117</v>
       </c>
       <c r="K30">
         <f>A30-G30</f>
-        <v>628.11771453509073</v>
+        <v>681.870082761719</v>
       </c>
       <c r="L30">
         <f>A30-B30</f>
-        <v>212.12021087281391</v>
+        <v>282.94859651035904</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="54"/>
+      <c r="B32" s="53"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="53" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1929,7 +1928,7 @@
       <c r="J36" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="44" t="s">
+      <c r="K36" s="43" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1940,25 +1939,25 @@
       <c r="B37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="42">
         <f>B14</f>
-        <v>43431</v>
-      </c>
-      <c r="G37" s="42">
+        <v>43441</v>
+      </c>
+      <c r="G37" s="41">
         <f>A26</f>
-        <v>216.50490730643401</v>
-      </c>
-      <c r="I37" s="42">
+        <v>54.55016357688114</v>
+      </c>
+      <c r="I37" s="41">
         <f>K26</f>
-        <v>35.824349593213554</v>
-      </c>
-      <c r="J37" s="42">
+        <v>14.813213134128304</v>
+      </c>
+      <c r="J37" s="41">
         <f>L26</f>
-        <v>45.208611010137702</v>
+        <v>25.42053394725151</v>
       </c>
       <c r="K37">
         <f>O11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1974,16 +1973,16 @@
       <c r="B39" s="16">
         <v>2888530</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G39" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="43" t="s">
         <v>68</v>
       </c>
       <c r="J39" t="s">
         <v>69</v>
       </c>
-      <c r="K39" s="44" t="s">
+      <c r="K39" s="43" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1994,17 +1993,17 @@
       <c r="B40" s="16">
         <v>20606806.999999996</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="41">
         <f>A30</f>
-        <v>3300.1515812431844</v>
-      </c>
-      <c r="I40" s="42">
+        <v>3400.1095965103596</v>
+      </c>
+      <c r="I40" s="41">
         <f>K30</f>
-        <v>628.11771453509073</v>
-      </c>
-      <c r="J40" s="42">
+        <v>681.870082761719</v>
+      </c>
+      <c r="J40" s="41">
         <f>L30</f>
-        <v>212.12021087281391</v>
+        <v>282.94859651035904</v>
       </c>
       <c r="K40">
         <f>O12</f>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CAE778-F278-4C57-AE67-D599D5C9C724}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F8E2CE-C6F0-4C5B-88D1-D44A5B1CF399}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10500" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10956" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,6 +762,27 @@
     <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,27 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1105,15 +1105,16 @@
     <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
     <col min="15" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1133,11 +1134,11 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="51" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="58" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
@@ -1168,7 +1169,7 @@
       </c>
       <c r="F2" s="36">
         <f>A18</f>
-        <v>7941.4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="36">
         <f>B7/10</f>
@@ -1179,15 +1180,15 @@
       </c>
       <c r="I2" s="36">
         <f>(G2-F2)/(C14*H2)</f>
-        <v>-26.992457288258816</v>
+        <v>9.09169392948019</v>
       </c>
       <c r="J2">
         <f>RANK(I2,(I2:I6),0)</f>
-        <v>4</v>
-      </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="51"/>
+        <v>1</v>
+      </c>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
         <v>2060.6806999999994</v>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="F3" s="36">
         <f>B18</f>
-        <v>9250</v>
+        <v>0</v>
       </c>
       <c r="G3" s="36">
         <f>B6/10</f>
@@ -1223,11 +1224,11 @@
       </c>
       <c r="I3" s="36">
         <f>(G3-F3)/(C14*H3)</f>
-        <v>-23.694444444444443</v>
-      </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="51"/>
+        <v>4.8549382716049383</v>
+      </c>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="58"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
         <v>127709.23680000003</v>
@@ -1252,7 +1253,7 @@
       </c>
       <c r="F4" s="36">
         <f>C18</f>
-        <v>8105.8600000000006</v>
+        <v>0</v>
       </c>
       <c r="G4" s="36">
         <f>B10/10</f>
@@ -1263,11 +1264,11 @@
       </c>
       <c r="I4" s="36">
         <f>(G4-F4)/(C14*H4)</f>
-        <v>-47.31481481481481</v>
-      </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="51" t="s">
+        <v>8.2809327846364891</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="58" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
@@ -1294,7 +1295,7 @@
       </c>
       <c r="F5" s="36">
         <f>D18</f>
-        <v>4901.1400000000003</v>
+        <v>0</v>
       </c>
       <c r="G5" s="36">
         <f>B8/10</f>
@@ -1305,11 +1306,11 @@
       </c>
       <c r="I5" s="36">
         <f>(G5-F5)/(C14*H5)</f>
-        <v>-15.489740143369175</v>
-      </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="51"/>
+        <v>6.4687724014336911</v>
+      </c>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="58"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
         <v>56.179953653216998</v>
@@ -1334,7 +1335,7 @@
       </c>
       <c r="F6" s="39">
         <f>E18</f>
-        <v>5669.86</v>
+        <v>0</v>
       </c>
       <c r="G6" s="39">
         <f>B9/10</f>
@@ -1345,9 +1346,9 @@
       </c>
       <c r="I6" s="39">
         <f>(G6-F6)/(C14*H6)</f>
-        <v>-11.18762914627515</v>
-      </c>
-      <c r="N6" s="51"/>
+        <v>4.2279771615008164</v>
+      </c>
+      <c r="N6" s="58"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
         <v>3481.7131079607425</v>
@@ -1372,7 +1373,7 @@
       </c>
       <c r="F7">
         <f>H18</f>
-        <v>10653.369999999999</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>B5/10</f>
@@ -1383,14 +1384,14 @@
       </c>
       <c r="I7">
         <f>(G7-F7)/(C14*H7)</f>
-        <v>-31.068333333333328</v>
-      </c>
-      <c r="N7" s="52" t="s">
+        <v>9.2853409090909089</v>
+      </c>
+      <c r="N7" s="59" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
         <f>I2-I10</f>
-        <v>-5.0636895660678221</v>
+        <v>3.0176354696713092</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1412,7 +1413,7 @@
       </c>
       <c r="F8">
         <f>F7+F4</f>
-        <v>18759.23</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f>G7+G4</f>
@@ -1424,9 +1425,9 @@
       </c>
       <c r="I8">
         <f>(G8-F8)/(C14*H8)</f>
-        <v>-36.848560273304052</v>
-      </c>
-      <c r="N8" s="52"/>
+        <v>8.9279892630551494</v>
+      </c>
+      <c r="N8" s="59"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
         <v>14.813213134128304</v>
@@ -1451,7 +1452,7 @@
       </c>
       <c r="F9" s="12">
         <f>SUM(F2:F6)</f>
-        <v>35868.26</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
         <f>SUM(G2:G6)</f>
@@ -1462,7 +1463,7 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="52"/>
+      <c r="N9" s="59"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
         <v>681.870082761719</v>
@@ -1484,31 +1485,31 @@
       </c>
       <c r="I10">
         <f>(G9-F9)/(H9*C14)</f>
-        <v>-21.928767722190994</v>
-      </c>
-      <c r="N10" s="52" t="s">
+        <v>6.0740584598088807</v>
+      </c>
+      <c r="N10" s="59" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
         <f>RANK(I2,(I2:I6),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="52"/>
+      <c r="N11" s="59"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="N12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="N12" s="59"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1524,10 +1525,10 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="49"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1540,29 +1541,29 @@
         <f>B14-A14</f>
         <v>6</v>
       </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="49"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="51"/>
-      <c r="O15" s="49"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="51" t="s">
+      <c r="N16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="49"/>
+      <c r="O16" s="56"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1592,40 +1593,40 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="51"/>
-      <c r="O17" s="49"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="56"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>7941.4</v>
-      </c>
-      <c r="B18" s="7">
-        <v>9250</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8105.8600000000006</v>
-      </c>
-      <c r="D18" s="7">
-        <v>4901.1400000000003</v>
-      </c>
-      <c r="E18" s="7">
-        <v>5669.86</v>
-      </c>
-      <c r="F18" s="7">
-        <v>487.43199999999996</v>
-      </c>
-      <c r="G18" s="7">
-        <v>22757.9</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10653.369999999999</v>
+        <v>0</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
       </c>
       <c r="I18" s="8">
         <f>SUM(A18:H18)</f>
-        <v>69766.962</v>
-      </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="50"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="58"/>
+      <c r="O18" s="57"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1636,17 +1637,17 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="N20" s="47" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="N20" s="54" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
@@ -1679,7 +1680,7 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="48"/>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1716,17 +1717,17 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1801,15 +1802,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1880,16 +1881,16 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="47"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="47" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2072,6 +2073,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2081,14 +2090,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -3,17 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F8E2CE-C6F0-4C5B-88D1-D44A5B1CF399}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7939AE49-720D-41E8-835E-7A522E3E0B7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10956" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12324" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -702,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
@@ -748,7 +753,6 @@
     <xf numFmtId="178" fontId="2" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="9" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="11" borderId="7" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -762,6 +766,24 @@
     <xf numFmtId="179" fontId="2" fillId="12" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="12" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,24 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1092,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1111,10 +1115,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>63</v>
@@ -1134,18 +1138,18 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="58" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="50" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="20">
         <f>B39/10000</f>
         <v>288.85300000000001</v>
       </c>
-      <c r="P1" s="46">
+      <c r="P1" s="45">
         <f>B42/10000</f>
         <v>120.879999999999</v>
       </c>
@@ -1155,40 +1159,40 @@
         <v>8</v>
       </c>
       <c r="B2" s="28">
+        <v>242604.2</v>
+      </c>
+      <c r="C2" s="28">
         <v>102928.9</v>
       </c>
-      <c r="C2" s="33">
+      <c r="D2" s="33">
+        <f t="shared" ref="D2:D10" si="0">C2-B2</f>
+        <v>-139675.30000000002</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34">
-        <f t="shared" ref="D2:D10" si="0">C2-B2</f>
-        <v>-102928.9</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="36">
+      <c r="F2" s="35">
         <f>A18</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="36">
+        <v>2000.9</v>
+      </c>
+      <c r="G2" s="35">
         <f>B7/10</f>
-        <v>2000.9</v>
-      </c>
-      <c r="H2" s="37">
+        <v>4888.1000000000004</v>
+      </c>
+      <c r="H2" s="36">
         <v>36.68</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="35">
         <f>(G2-F2)/(C14*H2)</f>
-        <v>9.09169392948019</v>
+        <v>13.118865866957472</v>
       </c>
       <c r="J2">
         <f>RANK(I2,(I2:I6),0)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="58"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="21">
         <f>B40/10000</f>
         <v>2060.6806999999994</v>
@@ -1199,36 +1203,36 @@
         <v>9</v>
       </c>
       <c r="B3" s="29">
+        <v>99363</v>
+      </c>
+      <c r="C3" s="29">
         <v>29964</v>
       </c>
-      <c r="C3" s="33">
-        <v>0</v>
-      </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <f t="shared" si="0"/>
-        <v>-29964</v>
-      </c>
-      <c r="E3" s="35" t="s">
+        <v>-69399</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="35">
         <f>B18</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="36">
+        <v>1573</v>
+      </c>
+      <c r="G3" s="35">
         <f>B6/10</f>
-        <v>1573</v>
-      </c>
-      <c r="H3" s="37">
+        <v>3771</v>
+      </c>
+      <c r="H3" s="36">
         <v>54</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <f>(G3-F3)/(C14*H3)</f>
-        <v>4.8549382716049383</v>
-      </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="58"/>
+        <v>6.783950617283951</v>
+      </c>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="50"/>
       <c r="O3" s="21">
         <f>B41/10000</f>
         <v>127709.23680000003</v>
@@ -1239,36 +1243,36 @@
         <v>10</v>
       </c>
       <c r="B4" s="29">
+        <v>139535</v>
+      </c>
+      <c r="C4" s="29">
         <v>7052.65</v>
       </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <f t="shared" si="0"/>
-        <v>-7052.65</v>
-      </c>
-      <c r="E4" s="35" t="s">
+        <v>-132482.35</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <f>C18</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="36">
+        <v>1207.3600000000001</v>
+      </c>
+      <c r="G4" s="35">
         <f>B10/10</f>
-        <v>1207.3600000000001</v>
-      </c>
-      <c r="H4" s="37">
+        <v>2787.31</v>
+      </c>
+      <c r="H4" s="36">
         <v>24.3</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <f>(G4-F4)/(C14*H4)</f>
-        <v>8.2809327846364891</v>
-      </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="58" t="s">
+        <v>10.836419753086417</v>
+      </c>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="50" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="21">
@@ -1281,36 +1285,36 @@
         <v>5</v>
       </c>
       <c r="B5" s="29">
+        <v>54365.5</v>
+      </c>
+      <c r="C5" s="29">
         <v>24513.3</v>
       </c>
-      <c r="C5" s="33">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <f t="shared" si="0"/>
-        <v>-24513.3</v>
-      </c>
-      <c r="E5" s="35" t="s">
+        <v>-29852.2</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <f>D18</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="36">
+        <v>1443.83</v>
+      </c>
+      <c r="G5" s="35">
         <f>B8/10</f>
-        <v>1443.83</v>
-      </c>
-      <c r="H5" s="37">
+        <v>2946.09</v>
+      </c>
+      <c r="H5" s="36">
         <v>37.200000000000003</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <f>(G5-F5)/(C14*H5)</f>
-        <v>6.4687724014336911</v>
-      </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="58"/>
+        <v>6.7305555555555561</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="50"/>
       <c r="O5" s="21">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
         <v>56.179953653216998</v>
@@ -1321,34 +1325,34 @@
         <v>11</v>
       </c>
       <c r="B6" s="29">
+        <v>37710</v>
+      </c>
+      <c r="C6" s="29">
         <v>15730</v>
       </c>
-      <c r="C6" s="33">
-        <v>0</v>
-      </c>
-      <c r="D6" s="44">
+      <c r="D6" s="43">
         <f t="shared" si="0"/>
-        <v>-15730</v>
-      </c>
-      <c r="E6" s="38" t="s">
+        <v>-21980</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <f>E18</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="39">
+        <v>1555.05</v>
+      </c>
+      <c r="G6" s="38">
         <f>B9/10</f>
-        <v>1555.05</v>
-      </c>
-      <c r="H6" s="40">
+        <v>3708.56</v>
+      </c>
+      <c r="H6" s="39">
         <v>61.3</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <f>(G6-F6)/(C14*H6)</f>
-        <v>4.2279771615008164</v>
-      </c>
-      <c r="N6" s="58"/>
+        <v>5.8551114736269723</v>
+      </c>
+      <c r="N6" s="50"/>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
         <v>3481.7131079607425</v>
@@ -1359,39 +1363,39 @@
         <v>12</v>
       </c>
       <c r="B7" s="29">
+        <v>48881</v>
+      </c>
+      <c r="C7" s="29">
         <v>20009</v>
       </c>
-      <c r="C7" s="33">
-        <v>0</v>
-      </c>
-      <c r="D7" s="44">
+      <c r="D7" s="43">
         <f t="shared" si="0"/>
-        <v>-20009</v>
+        <v>-28872</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7">
         <f>H18</f>
-        <v>0</v>
+        <v>2451.33</v>
       </c>
       <c r="G7">
         <f>B5/10</f>
-        <v>2451.33</v>
+        <v>5436.55</v>
       </c>
       <c r="H7" s="2">
         <v>44</v>
       </c>
       <c r="I7">
         <f>(G7-F7)/(C14*H7)</f>
-        <v>9.2853409090909089</v>
-      </c>
-      <c r="N7" s="59" t="s">
+        <v>11.307651515151516</v>
+      </c>
+      <c r="N7" s="51" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="22">
         <f>I2-I10</f>
-        <v>3.0176354696713092</v>
+        <v>5.061186771335711</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1399,25 +1403,25 @@
         <v>13</v>
       </c>
       <c r="B8" s="29">
+        <v>29460.9</v>
+      </c>
+      <c r="C8" s="29">
         <v>14438.3</v>
       </c>
-      <c r="C8" s="33">
-        <v>0</v>
-      </c>
-      <c r="D8" s="44">
+      <c r="D8" s="43">
         <f t="shared" si="0"/>
-        <v>-14438.3</v>
+        <v>-15022.600000000002</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8">
         <f>F7+F4</f>
-        <v>0</v>
+        <v>3658.69</v>
       </c>
       <c r="G8">
         <f>G7+G4</f>
-        <v>3658.69</v>
+        <v>8223.86</v>
       </c>
       <c r="H8" s="2">
         <f>H7+H4</f>
@@ -1425,12 +1429,12 @@
       </c>
       <c r="I8">
         <f>(G8-F8)/(C14*H8)</f>
-        <v>8.9279892630551494</v>
-      </c>
-      <c r="N8" s="59"/>
+        <v>11.139995119570523</v>
+      </c>
+      <c r="N8" s="51"/>
       <c r="O8" s="22">
         <f>A26-G26</f>
-        <v>14.813213134128304</v>
+        <v>41.84806438682854</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1438,35 +1442,35 @@
         <v>14</v>
       </c>
       <c r="B9" s="29">
+        <v>37085.599999999999</v>
+      </c>
+      <c r="C9" s="29">
         <v>15550.5</v>
       </c>
-      <c r="C9" s="33">
-        <v>0</v>
-      </c>
-      <c r="D9" s="44">
+      <c r="D9" s="43">
         <f t="shared" si="0"/>
-        <v>-15550.5</v>
+        <v>-21535.1</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="12">
         <f>SUM(F2:F6)</f>
-        <v>0</v>
+        <v>7780.14</v>
       </c>
       <c r="G9" s="12">
         <f>SUM(G2:G6)</f>
-        <v>7780.14</v>
+        <v>18101.060000000001</v>
       </c>
       <c r="H9" s="12">
         <f>SUM(H2:H6)</f>
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="N9" s="59"/>
+      <c r="N9" s="51"/>
       <c r="O9" s="22">
         <f>A30-G30</f>
-        <v>681.870082761719</v>
+        <v>708.90493401442018</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1474,20 +1478,20 @@
         <v>15</v>
       </c>
       <c r="B10" s="30">
+        <v>27873.1</v>
+      </c>
+      <c r="C10" s="30">
         <v>12073.6</v>
       </c>
-      <c r="C10" s="33">
-        <v>0</v>
-      </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <f t="shared" si="0"/>
-        <v>-12073.6</v>
+        <v>-15799.499999999998</v>
       </c>
       <c r="I10">
         <f>(G9-F9)/(H9*C14)</f>
-        <v>6.0740584598088807</v>
-      </c>
-      <c r="N10" s="59" t="s">
+        <v>8.0576790956217614</v>
+      </c>
+      <c r="N10" s="51" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="22">
@@ -1497,19 +1501,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="N11" s="59"/>
+      <c r="N11" s="51"/>
       <c r="O11" s="22">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="N12" s="59"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="22">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
@@ -1525,45 +1529,45 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="58" t="s">
+      <c r="N13" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="56"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>43435</v>
+        <v>43441</v>
       </c>
       <c r="B14" s="4">
-        <v>43441</v>
+        <v>43447</v>
       </c>
       <c r="C14" s="3">
         <f>B14-A14</f>
         <v>6</v>
       </c>
-      <c r="N14" s="58"/>
-      <c r="O14" s="56"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="58"/>
-      <c r="O15" s="56"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="48"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="5"/>
-      <c r="N16" s="58" t="s">
+      <c r="N16" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="56"/>
+      <c r="O16" s="48"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1593,40 +1597,40 @@
       <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="58"/>
-      <c r="O17" s="56"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="48"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>0</v>
+        <v>2000.9</v>
       </c>
       <c r="B18" s="6">
-        <v>0</v>
+        <v>1573</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
+        <v>1207.3600000000001</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
+        <v>1443.83</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>1555.05</v>
       </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>2996.4</v>
       </c>
       <c r="G18" s="6">
-        <v>0</v>
+        <v>705.26499999999999</v>
       </c>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>2451.33</v>
       </c>
       <c r="I18" s="8">
         <f>SUM(A18:H18)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="57"/>
+        <v>13933.135</v>
+      </c>
+      <c r="N18" s="50"/>
+      <c r="O18" s="49"/>
     </row>
     <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="19" t="s">
@@ -1637,17 +1641,17 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="N20" s="54" t="s">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="N20" s="46" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="24">
@@ -1680,54 +1684,54 @@
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <f>B7/10</f>
-        <v>2000.9</v>
+        <v>4888.1000000000004</v>
       </c>
       <c r="B22" s="11">
         <f>B6/10</f>
-        <v>1573</v>
+        <v>3771</v>
       </c>
       <c r="C22" s="11">
         <f>B10/10</f>
-        <v>1207.3600000000001</v>
+        <v>2787.31</v>
       </c>
       <c r="D22" s="11">
         <f>B8/10</f>
-        <v>1443.83</v>
+        <v>2946.09</v>
       </c>
       <c r="E22" s="11">
         <f>B9/10</f>
-        <v>1555.05</v>
+        <v>3708.56</v>
       </c>
       <c r="F22" s="11">
         <f>B3/10</f>
-        <v>2996.4</v>
+        <v>9936.2999999999993</v>
       </c>
       <c r="G22" s="11">
         <f>B4/10</f>
-        <v>705.26499999999999</v>
+        <v>13953.5</v>
       </c>
       <c r="H22" s="11">
         <f>B5/10</f>
-        <v>2451.33</v>
+        <v>5436.55</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1764,53 +1768,53 @@
     </row>
     <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>54.55016357688114</v>
+        <v>133.26335877862596</v>
       </c>
       <c r="B26" s="7">
-        <v>29.12962962962963</v>
+        <v>69.833333333333329</v>
       </c>
       <c r="C26" s="7">
-        <v>49.685596707818931</v>
+        <v>114.70411522633745</v>
       </c>
       <c r="D26" s="7">
-        <v>38.812634408602143</v>
+        <v>79.195967741935476</v>
       </c>
       <c r="E26" s="7">
-        <v>25.367862969004893</v>
+        <v>60.498531810766721</v>
       </c>
       <c r="F26" s="7">
-        <v>55.712045454545454</v>
+        <v>123.55795454545455</v>
       </c>
       <c r="G26" s="7">
-        <v>39.736950442752835</v>
+        <v>91.415294391797417</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
-        <v>53.567935578330896</v>
+        <v>120.40790629575405</v>
       </c>
       <c r="K26">
         <f>A26-G26</f>
-        <v>14.813213134128304</v>
+        <v>41.84806438682854</v>
       </c>
       <c r="L26">
         <f>A26-B26</f>
-        <v>25.42053394725151</v>
+        <v>63.430025445292628</v>
       </c>
       <c r="N26">
-        <f>C26-A26</f>
-        <v>-4.8645668690622088</v>
+        <f>A26-C26</f>
+        <v>18.559243552288507</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1847,50 +1851,54 @@
     </row>
     <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>3400.1095965103596</v>
+        <v>3478.8227917121048</v>
       </c>
       <c r="B30" s="7">
-        <v>3117.1610000000005</v>
+        <v>3157.864703703704</v>
       </c>
       <c r="C30" s="7">
-        <v>2646.6561316872426</v>
+        <v>2711.6746502057613</v>
       </c>
       <c r="D30" s="7">
-        <v>3114.642446236559</v>
+        <v>3155.0257795698922</v>
       </c>
       <c r="E30" s="7">
-        <v>2127.8134910277322</v>
+        <v>2162.9441598694943</v>
       </c>
       <c r="F30" s="7">
-        <v>2187.1860454545454</v>
+        <v>2255.0319545454545</v>
       </c>
       <c r="G30" s="7">
-        <v>2718.2395137486405</v>
+        <v>2769.9178576976847</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
-        <v>2350.6578330893117</v>
+        <v>2417.4978038067352</v>
       </c>
       <c r="K30">
         <f>A30-G30</f>
-        <v>681.870082761719</v>
+        <v>708.90493401442018</v>
       </c>
       <c r="L30">
         <f>A30-B30</f>
-        <v>282.94859651035904</v>
+        <v>320.95808800840086</v>
+      </c>
+      <c r="N30">
+        <f>A30-C30</f>
+        <v>767.14814150634356</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="52"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="52" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1929,7 +1937,7 @@
       <c r="J36" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="43" t="s">
+      <c r="K36" s="42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1940,21 +1948,21 @@
       <c r="B37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="41">
         <f>B14</f>
-        <v>43441</v>
-      </c>
-      <c r="G37" s="41">
+        <v>43447</v>
+      </c>
+      <c r="G37" s="40">
         <f>A26</f>
-        <v>54.55016357688114</v>
-      </c>
-      <c r="I37" s="41">
+        <v>133.26335877862596</v>
+      </c>
+      <c r="I37" s="40">
         <f>K26</f>
-        <v>14.813213134128304</v>
-      </c>
-      <c r="J37" s="41">
+        <v>41.84806438682854</v>
+      </c>
+      <c r="J37" s="40">
         <f>L26</f>
-        <v>25.42053394725151</v>
+        <v>63.430025445292628</v>
       </c>
       <c r="K37">
         <f>O11</f>
@@ -1974,16 +1982,16 @@
       <c r="B39" s="16">
         <v>2888530</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="42" t="s">
         <v>68</v>
       </c>
       <c r="J39" t="s">
         <v>69</v>
       </c>
-      <c r="K39" s="43" t="s">
+      <c r="K39" s="42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1994,17 +2002,17 @@
       <c r="B40" s="16">
         <v>20606806.999999996</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="40">
         <f>A30</f>
-        <v>3400.1095965103596</v>
-      </c>
-      <c r="I40" s="41">
+        <v>3478.8227917121048</v>
+      </c>
+      <c r="I40" s="40">
         <f>K30</f>
-        <v>681.870082761719</v>
-      </c>
-      <c r="J40" s="41">
+        <v>708.90493401442018</v>
+      </c>
+      <c r="J40" s="40">
         <f>L30</f>
-        <v>282.94859651035904</v>
+        <v>320.95808800840086</v>
       </c>
       <c r="K40">
         <f>O12</f>
@@ -2073,14 +2081,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L1:M5"/>
     <mergeCell ref="A24:I24"/>
@@ -2090,6 +2090,14 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE932C9B-D872-47BC-8D18-EC127E2FDE23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18168" windowHeight="10092"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="18168" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>1.本次下发的上网数据</t>
   </si>
@@ -223,19 +236,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,144 +301,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,13 +317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,19 +347,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,150 +371,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -883,295 +630,65 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="33" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="43" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="33" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="33" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="43" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="33" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="43" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="39" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="33" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="47" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="47" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="8" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="38" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="38" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="38" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="36" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="36" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="36" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="36" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="38" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="31" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="7" fillId="7" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1183,103 +700,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="7" fillId="12" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="7" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="7" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="12" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="12" borderId="13" xfId="27" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="12" borderId="14" xfId="27" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="27" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="27" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="38" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="27" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="14" xfId="27" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="12" borderId="19" xfId="27" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="10">
+    <cellStyle name="20% - 着色 3" xfId="1" builtinId="38"/>
+    <cellStyle name="20% - 着色 5" xfId="4" builtinId="46"/>
+    <cellStyle name="20% - 着色 6" xfId="2" builtinId="50"/>
+    <cellStyle name="40% - 着色 1" xfId="5" builtinId="31"/>
+    <cellStyle name="40% - 着色 2" xfId="6" builtinId="35"/>
+    <cellStyle name="40% - 着色 6" xfId="9" builtinId="51"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="着色 3" xfId="7" builtinId="37"/>
+    <cellStyle name="着色 5" xfId="8" builtinId="45"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1537,39 +1037,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="13.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="12.7777777777778" customWidth="1"/>
-    <col min="5" max="6" width="16.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="15.5555555555556" customWidth="1"/>
-    <col min="12" max="12" width="8.88888888888889" customWidth="1"/>
-    <col min="15" max="15" width="12.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:16">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
@@ -1578,7 +1078,7 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
@@ -1587,791 +1087,791 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="M1" s="58"/>
+      <c r="N1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="46">
+      <c r="O1" s="39">
         <f>B39/10000</f>
-        <v>288.853</v>
-      </c>
-      <c r="P1" s="47">
+        <v>288.85300000000001</v>
+      </c>
+      <c r="P1" s="40">
         <f>B42/10000</f>
         <v>120.879999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
+        <v>358102</v>
+      </c>
+      <c r="C2" s="5">
         <v>242604.2</v>
       </c>
-      <c r="C2" s="6">
-        <v>102928.9</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f t="shared" ref="D2:D10" si="0">C2-B2</f>
-        <v>-139675.3</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>-115497.79999999999</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f>A18</f>
-        <v>2000.9</v>
-      </c>
-      <c r="G2" s="9">
+        <v>4888.1000000000004</v>
+      </c>
+      <c r="G2" s="8">
         <f>B7/10</f>
-        <v>4888.1</v>
-      </c>
-      <c r="H2" s="10">
+        <v>5188.5</v>
+      </c>
+      <c r="H2" s="9">
         <v>36.68</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <f>(G2-F2)/(C14*H2)</f>
-        <v>13.1188658669575</v>
+        <v>1.3649581970192641</v>
       </c>
       <c r="J2">
         <f>RANK(I2,(I2:I6),0)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="48">
+        <v>4</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="41">
         <f>B40/10000</f>
-        <v>2060.6807</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
+        <v>2060.6806999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
+        <v>123387</v>
+      </c>
+      <c r="C3" s="10">
         <v>99363</v>
       </c>
-      <c r="C3" s="11">
-        <v>29964</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>-69399</v>
-      </c>
-      <c r="E3" s="8" t="s">
+        <v>-24024</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>B18</f>
-        <v>1573</v>
-      </c>
-      <c r="G3" s="9">
+        <v>3771</v>
+      </c>
+      <c r="G3" s="8">
         <f>B6/10</f>
-        <v>3771</v>
-      </c>
-      <c r="H3" s="10">
+        <v>5491</v>
+      </c>
+      <c r="H3" s="9">
         <v>54</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f>(G3-F3)/(C14*H3)</f>
-        <v>6.78395061728395</v>
-      </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="48">
+        <v>5.3086419753086416</v>
+      </c>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="41">
         <f>B41/10000</f>
         <v>127709.2368</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>139535</v>
       </c>
-      <c r="C4" s="11">
-        <v>7052.65</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="10">
+        <v>139535</v>
+      </c>
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-132482.35</v>
-      </c>
-      <c r="E4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f>C18</f>
-        <v>1207.36</v>
-      </c>
-      <c r="G4" s="9">
+        <v>2787.31</v>
+      </c>
+      <c r="G4" s="8">
         <f>B10/10</f>
-        <v>2787.31</v>
-      </c>
-      <c r="H4" s="10">
+        <v>4014.7400000000002</v>
+      </c>
+      <c r="H4" s="9">
         <v>24.3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f>(G4-F4)/(C14*H4)</f>
-        <v>10.8364197530864</v>
-      </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45" t="s">
+        <v>8.4185871056241446</v>
+      </c>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="41">
         <f>O1/36.68</f>
-        <v>7.87494547437296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="5" t="s">
+        <v>7.8749454743729554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
+        <v>79617.600000000006</v>
+      </c>
+      <c r="C5" s="10">
         <v>54365.5</v>
       </c>
-      <c r="C5" s="11">
-        <v>24513.3</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-29852.2</v>
-      </c>
-      <c r="E5" s="8" t="s">
+        <v>-25252.100000000006</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>D18</f>
-        <v>1443.83</v>
-      </c>
-      <c r="G5" s="9">
+        <v>2946.09</v>
+      </c>
+      <c r="G5" s="8">
         <f>B8/10</f>
-        <v>2946.09</v>
-      </c>
-      <c r="H5" s="10">
-        <v>37.2</v>
-      </c>
-      <c r="I5" s="9">
+        <v>3104.38</v>
+      </c>
+      <c r="H5" s="9">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I5" s="8">
         <f>(G5-F5)/(C14*H5)</f>
-        <v>6.73055555555556</v>
-      </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="48">
+        <v>0.70918458781361982</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="41">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
-        <v>56.179953653217</v>
-      </c>
-    </row>
-    <row r="6" ht="14.55" spans="1:15">
-      <c r="A6" s="5" t="s">
+        <v>56.179953653217012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
+        <v>54910</v>
+      </c>
+      <c r="C6" s="10">
         <v>37710</v>
       </c>
-      <c r="C6" s="11">
-        <v>15730</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>-21980</v>
-      </c>
-      <c r="E6" s="13" t="s">
+        <v>-17200</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <f>E18</f>
-        <v>1555.05</v>
-      </c>
-      <c r="G6" s="14">
+        <v>3708.56</v>
+      </c>
+      <c r="G6" s="13">
         <f>B9/10</f>
-        <v>3708.56</v>
-      </c>
-      <c r="H6" s="15">
+        <v>4444.54</v>
+      </c>
+      <c r="H6" s="14">
         <v>61.3</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <f>(G6-F6)/(C14*H6)</f>
-        <v>5.85511147362697</v>
-      </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="48">
+        <v>2.0010331702011968</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="41">
         <f t="shared" si="1"/>
-        <v>3481.71310796074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="5" t="s">
+        <v>3481.7131079607416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
+        <v>51885</v>
+      </c>
+      <c r="C7" s="10">
         <v>48881</v>
       </c>
-      <c r="C7" s="11">
-        <v>20009</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>-28872</v>
+        <v>-3004</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7">
         <f>H18</f>
-        <v>2451.33</v>
+        <v>5436.55</v>
       </c>
       <c r="G7">
         <f>B5/10</f>
-        <v>5436.55</v>
-      </c>
-      <c r="H7" s="4">
+        <v>7961.76</v>
+      </c>
+      <c r="H7" s="3">
         <v>44</v>
       </c>
       <c r="I7">
         <f>(G7-F7)/(C14*H7)</f>
-        <v>11.3076515151515</v>
-      </c>
-      <c r="N7" s="49" t="s">
+        <v>9.5651893939393933</v>
+      </c>
+      <c r="N7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="42">
         <f>I2-I10</f>
-        <v>5.06118677133571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="5" t="s">
+        <v>-1.8688341957107326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
+        <v>31043.8</v>
+      </c>
+      <c r="C8" s="10">
         <v>29460.9</v>
       </c>
-      <c r="C8" s="11">
-        <v>14438.3</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>-15022.6</v>
+      <c r="D8" s="11">
+        <f>C8-B8</f>
+        <v>-1582.8999999999978</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8">
         <f>F7+F4</f>
-        <v>3658.69</v>
+        <v>8223.86</v>
       </c>
       <c r="G8">
         <f>G7+G4</f>
-        <v>8223.86</v>
-      </c>
-      <c r="H8" s="4">
+        <v>11976.5</v>
+      </c>
+      <c r="H8" s="3">
         <f>H7+H4</f>
         <v>68.3</v>
       </c>
       <c r="I8">
         <f>(G8-F8)/(C14*H8)</f>
-        <v>11.1399951195705</v>
-      </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50">
+        <v>9.1572474377745241</v>
+      </c>
+      <c r="N8" s="52"/>
+      <c r="O8" s="42">
         <f>A26-G26</f>
-        <v>41.8480643868285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="5" t="s">
+        <v>24.143336327993396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11">
-        <v>37085.6</v>
-      </c>
-      <c r="C9" s="11">
-        <v>15550.5</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="B9" s="10">
+        <v>44445.4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>37085.599999999999</v>
+      </c>
+      <c r="D9" s="11">
+        <f>C9-B9</f>
+        <v>-7359.8000000000029</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="15">
+        <f>SUM(F2:F6)</f>
+        <v>18101.060000000001</v>
+      </c>
+      <c r="G9" s="15">
+        <f>SUM(G2:G6)</f>
+        <v>22243.16</v>
+      </c>
+      <c r="H9" s="15">
+        <f>SUM(H2:H6)</f>
+        <v>213.48000000000002</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="42">
+        <f>A30-G30</f>
+        <v>691.2002059555839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="16">
+        <v>40147.4</v>
+      </c>
+      <c r="C10" s="16">
+        <v>27873.1</v>
+      </c>
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
-        <v>-21535.1</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="16">
-        <f>SUM(F2:F6)</f>
-        <v>7780.14</v>
-      </c>
-      <c r="G9" s="16">
-        <f>SUM(G2:G6)</f>
-        <v>18101.06</v>
-      </c>
-      <c r="H9" s="16">
-        <f>SUM(H2:H6)</f>
-        <v>213.48</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50">
-        <f>A30-G30</f>
-        <v>708.90493401442</v>
-      </c>
-    </row>
-    <row r="10" ht="14.55" spans="1:15">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="17">
-        <v>27873.1</v>
-      </c>
-      <c r="C10" s="17">
-        <v>12073.6</v>
-      </c>
-      <c r="D10" s="18">
-        <f t="shared" si="0"/>
-        <v>-15799.5</v>
+        <v>-12274.300000000003</v>
       </c>
       <c r="I10">
         <f>(G9-F9)/(H9*C14)</f>
-        <v>8.05767909562176</v>
-      </c>
-      <c r="N10" s="49" t="s">
+        <v>3.2337923927299967</v>
+      </c>
+      <c r="N10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="42">
         <f>RANK(I2,(I2:I6),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15">
-      <c r="C11" s="19"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="42">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="42">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.55" spans="1:15">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="51"/>
-    </row>
-    <row r="14" ht="14.55" spans="1:15">
-      <c r="A14" s="22">
-        <v>43441</v>
-      </c>
-      <c r="B14" s="22">
+      <c r="O13" s="55"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <v>43447</v>
       </c>
-      <c r="C14" s="21">
+      <c r="B14" s="20">
+        <v>43453</v>
+      </c>
+      <c r="C14" s="19">
         <f>B14-A14</f>
         <v>6</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="51"/>
-    </row>
-    <row r="15" spans="14:15">
-      <c r="N15" s="45"/>
-      <c r="O15" s="51"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="23" t="s">
+      <c r="N14" s="51"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="51"/>
+      <c r="O15" s="55"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="N16" s="45" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="21"/>
+      <c r="N16" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="51"/>
-    </row>
-    <row r="17" ht="14.55" spans="1:15">
-      <c r="A17" s="24" t="s">
+      <c r="O16" s="55"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="45"/>
-      <c r="O17" s="51"/>
-    </row>
-    <row r="18" ht="14.55" spans="1:15">
-      <c r="A18" s="25">
-        <v>2000.9</v>
-      </c>
-      <c r="B18" s="25">
-        <v>1573</v>
-      </c>
-      <c r="C18" s="25">
-        <v>1207.36</v>
-      </c>
-      <c r="D18" s="25">
-        <v>1443.83</v>
-      </c>
-      <c r="E18" s="25">
-        <v>1555.05</v>
-      </c>
-      <c r="F18" s="25">
-        <v>2996.4</v>
-      </c>
-      <c r="G18" s="25">
-        <v>705.265</v>
-      </c>
-      <c r="H18" s="25">
-        <v>2451.33</v>
-      </c>
-      <c r="I18" s="52">
+      <c r="N17" s="51"/>
+      <c r="O17" s="55"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>4888.1000000000004</v>
+      </c>
+      <c r="B18" s="22">
+        <v>3771</v>
+      </c>
+      <c r="C18" s="22">
+        <v>2787.31</v>
+      </c>
+      <c r="D18" s="22">
+        <v>2946.09</v>
+      </c>
+      <c r="E18" s="22">
+        <v>3708.56</v>
+      </c>
+      <c r="F18" s="22">
+        <v>9936.2999999999993</v>
+      </c>
+      <c r="G18" s="22">
+        <v>13953.5</v>
+      </c>
+      <c r="H18" s="22">
+        <v>5436.55</v>
+      </c>
+      <c r="I18" s="43">
         <f>SUM(A18:H18)</f>
-        <v>13933.135</v>
-      </c>
-      <c r="N18" s="45"/>
-      <c r="O18" s="53"/>
-    </row>
-    <row r="19" ht="46.8" spans="14:15">
-      <c r="N19" s="45" t="s">
+        <v>47427.41</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="56"/>
+    </row>
+    <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="N19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="54" t="s">
+      <c r="O19" s="44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" ht="14.55" spans="1:15">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="N20" s="55" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="N20" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="56">
+      <c r="O20" s="45">
         <f>B42/10000</f>
         <v>120.879999999999</v>
       </c>
     </row>
-    <row r="21" ht="14.55" spans="1:14">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="57"/>
-    </row>
-    <row r="22" ht="14.55" spans="1:8">
-      <c r="A22" s="28">
+      <c r="N21" s="54"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
         <f>B7/10</f>
-        <v>4888.1</v>
-      </c>
-      <c r="B22" s="29">
+        <v>5188.5</v>
+      </c>
+      <c r="B22" s="25">
         <f>B6/10</f>
-        <v>3771</v>
-      </c>
-      <c r="C22" s="29">
+        <v>5491</v>
+      </c>
+      <c r="C22" s="25">
         <f>B10/10</f>
-        <v>2787.31</v>
-      </c>
-      <c r="D22" s="29">
+        <v>4014.7400000000002</v>
+      </c>
+      <c r="D22" s="25">
         <f>B8/10</f>
-        <v>2946.09</v>
-      </c>
-      <c r="E22" s="29">
+        <v>3104.38</v>
+      </c>
+      <c r="E22" s="25">
         <f>B9/10</f>
-        <v>3708.56</v>
-      </c>
-      <c r="F22" s="29">
+        <v>4444.54</v>
+      </c>
+      <c r="F22" s="25">
         <f>B3/10</f>
-        <v>9936.3</v>
-      </c>
-      <c r="G22" s="29">
+        <v>12338.7</v>
+      </c>
+      <c r="G22" s="25">
         <f>B4/10</f>
         <v>13953.5</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="25">
         <f>B5/10</f>
-        <v>5436.55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="23" t="s">
+        <v>7961.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" ht="14.55" spans="1:12">
-      <c r="A25" s="24" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24" t="s">
+      <c r="H25" s="21"/>
+      <c r="I25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="14.55" spans="1:14">
-      <c r="A26" s="25">
-        <v>133.263358778626</v>
-      </c>
-      <c r="B26" s="30">
-        <v>69.8333333333333</v>
-      </c>
-      <c r="C26" s="30">
-        <v>114.704115226337</v>
-      </c>
-      <c r="D26" s="30">
-        <v>79.1959677419355</v>
-      </c>
-      <c r="E26" s="30">
-        <v>60.4985318107667</v>
-      </c>
-      <c r="F26" s="30">
-        <v>123.557954545455</v>
-      </c>
-      <c r="G26" s="30">
-        <v>91.4152943917974</v>
-      </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="52">
-        <v>120.407906295754</v>
+    <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>141.45310796074156</v>
+      </c>
+      <c r="B26" s="26">
+        <v>101.68518518518519</v>
+      </c>
+      <c r="C26" s="26">
+        <v>165.2156378600823</v>
+      </c>
+      <c r="D26" s="26">
+        <v>83.451075268817206</v>
+      </c>
+      <c r="E26" s="26">
+        <v>72.504730831973902</v>
+      </c>
+      <c r="F26" s="26">
+        <v>180.94909090909093</v>
+      </c>
+      <c r="G26" s="26">
+        <v>117.30977163274817</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="43">
+        <v>175.35139092240118</v>
       </c>
       <c r="K26">
         <f>A26-G26</f>
-        <v>41.8480643868285</v>
+        <v>24.143336327993396</v>
       </c>
       <c r="L26">
         <f>A26-B26</f>
-        <v>63.4300254452926</v>
+        <v>39.767922775556372</v>
       </c>
       <c r="N26">
         <f>A26-C26</f>
-        <v>18.5592435522885</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="23" t="s">
+        <v>-23.762529899340734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" ht="14.55" spans="1:12">
-      <c r="A29" s="24" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24" t="s">
+      <c r="H29" s="21"/>
+      <c r="I29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" ht="14.55" spans="1:14">
-      <c r="A30" s="25">
-        <v>3478.8227917121</v>
-      </c>
-      <c r="B30" s="30">
-        <v>3157.8647037037</v>
-      </c>
-      <c r="C30" s="30">
-        <v>2711.67465020576</v>
-      </c>
-      <c r="D30" s="30">
-        <v>3155.02577956989</v>
-      </c>
-      <c r="E30" s="30">
-        <v>2162.94415986949</v>
-      </c>
-      <c r="F30" s="30">
-        <v>2255.03195454545</v>
-      </c>
-      <c r="G30" s="30">
-        <v>2769.91785769768</v>
-      </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="52">
-        <v>2417.49780380674</v>
+    <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>3487.0125408942204</v>
+      </c>
+      <c r="B30" s="26">
+        <v>3189.7165555555557</v>
+      </c>
+      <c r="C30" s="26">
+        <v>2762.1861728395061</v>
+      </c>
+      <c r="D30" s="26">
+        <v>3159.2808870967742</v>
+      </c>
+      <c r="E30" s="26">
+        <v>2174.9503588907014</v>
+      </c>
+      <c r="F30" s="26">
+        <v>2312.4230909090907</v>
+      </c>
+      <c r="G30" s="26">
+        <v>2795.8123349386365</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="43">
+        <v>2472.4412884333819</v>
       </c>
       <c r="K30">
         <f>A30-G30</f>
-        <v>708.90493401442</v>
+        <v>691.2002059555839</v>
       </c>
       <c r="L30">
         <f>A30-B30</f>
-        <v>320.958088008401</v>
+        <v>297.29598533866465</v>
       </c>
       <c r="N30">
         <f>A30-C30</f>
-        <v>767.148141506344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="31" t="s">
+        <v>724.82636805471429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="31"/>
-    </row>
-    <row r="33" ht="14.55" spans="1:2">
-      <c r="A33" s="31" t="s">
+      <c r="B32" s="50"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="28">
         <v>1206</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="30">
         <v>340</v>
       </c>
     </row>
-    <row r="36" ht="14.4" spans="1:11">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="30" t="s">
         <v>48</v>
       </c>
       <c r="F36" t="s">
@@ -2386,155 +1886,152 @@
       <c r="J36" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="31">
         <f>B14</f>
-        <v>43447</v>
-      </c>
-      <c r="G37" s="37">
+        <v>43453</v>
+      </c>
+      <c r="G37" s="32">
         <f>A26</f>
-        <v>133.263358778626</v>
-      </c>
-      <c r="I37" s="37">
+        <v>141.45310796074156</v>
+      </c>
+      <c r="I37" s="32">
         <f>K26</f>
-        <v>41.8480643868285</v>
-      </c>
-      <c r="J37" s="37">
+        <v>24.143336327993396</v>
+      </c>
+      <c r="J37" s="32">
         <f>L26</f>
-        <v>63.4300254452926</v>
+        <v>39.767922775556372</v>
       </c>
       <c r="K37">
         <f>O11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="39"/>
-    </row>
-    <row r="39" ht="14.4" spans="1:11">
-      <c r="A39" s="34" t="s">
+      <c r="B38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="30">
         <v>2888530</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G39" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="35" t="s">
         <v>51</v>
       </c>
       <c r="J39" t="s">
         <v>52</v>
       </c>
-      <c r="K39" s="40" t="s">
+      <c r="K39" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="34" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="35">
+      <c r="B40" s="30">
         <v>20606807</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="32">
         <f>A30</f>
-        <v>3478.8227917121</v>
-      </c>
-      <c r="I40" s="37">
+        <v>3487.0125408942204</v>
+      </c>
+      <c r="I40" s="32">
         <f>K30</f>
-        <v>708.90493401442</v>
-      </c>
-      <c r="J40" s="37">
+        <v>691.2002059555839</v>
+      </c>
+      <c r="J40" s="32">
         <f>L30</f>
-        <v>320.958088008401</v>
+        <v>297.29598533866465</v>
       </c>
       <c r="K40">
         <f>O12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="34" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="30">
         <v>1277092368</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="34" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B42">
         <v>1208799.99999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="38" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="39"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="34" t="s">
+      <c r="B43" s="34"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="35">
-        <v>2688353.00000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="34" t="s">
+      <c r="B44" s="30">
+        <v>2688353.0000000098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="30">
         <v>106714531</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="38" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="39"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="34" t="s">
+      <c r="B46" s="34"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="35">
+      <c r="B47" s="30">
         <v>7976</v>
       </c>
     </row>
-    <row r="48" ht="14.55" spans="1:2">
-      <c r="A48" s="41" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="42">
+      <c r="B48" s="37">
         <v>130125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="L1:M5"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
@@ -2545,11 +2042,14 @@
     <mergeCell ref="N13:N15"/>
     <mergeCell ref="N16:N18"/>
     <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="L1:M5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A24:I24"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E22660E-156F-43C0-9E06-4E962AA9599B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C9AD77-A769-4A5F-A3F7-A927B2DE8FD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="18168" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2736" windowWidth="18168" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>1.本次下发的上网数据</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>年计划发电量</t>
+  </si>
+  <si>
+    <t>比美B高</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>比中海油高</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>低于</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -256,6 +268,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -263,6 +276,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,12 +284,14 @@
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -283,6 +299,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -290,6 +307,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -297,6 +315,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -661,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -759,6 +778,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 着色 3" xfId="1" builtinId="38"/>
@@ -1043,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1108,36 +1128,36 @@
         <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>579355.92000000004</v>
+        <v>52251.42</v>
       </c>
       <c r="C2" s="5">
-        <v>358102</v>
+        <v>0</v>
       </c>
       <c r="D2" s="6">
         <f t="shared" ref="D2:D10" si="0">C2-B2</f>
-        <v>-221253.92000000004</v>
+        <v>-52251.42</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="8">
         <f>A18</f>
-        <v>5188.5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <f>B7/10</f>
-        <v>5199.1279999999997</v>
+        <v>536.85</v>
       </c>
       <c r="H2" s="9">
         <v>36.68</v>
       </c>
       <c r="I2" s="8">
         <f>(G2-F2)/(C14*H2)</f>
-        <v>2.414576517629885E-2</v>
+        <v>4.8786804798255181</v>
       </c>
       <c r="J2">
         <f>RANK(I2,(I2:I6),0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" s="49"/>
       <c r="M2" s="50"/>
@@ -1152,32 +1172,32 @@
         <v>11</v>
       </c>
       <c r="B3" s="10">
-        <v>161884.79999999999</v>
+        <v>15873</v>
       </c>
       <c r="C3" s="10">
-        <v>123387</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>-38497.799999999988</v>
+        <v>-15873</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="8">
         <f>B18</f>
-        <v>5491</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8">
         <f>B6/10</f>
-        <v>7377.7440000000006</v>
+        <v>0</v>
       </c>
       <c r="H3" s="9">
         <v>54</v>
       </c>
       <c r="I3" s="8">
         <f>(G3-F3)/(C14*H3)</f>
-        <v>2.9116419753086431</v>
+        <v>0</v>
       </c>
       <c r="L3" s="49"/>
       <c r="M3" s="50"/>
@@ -1192,32 +1212,32 @@
         <v>13</v>
       </c>
       <c r="B4" s="10">
-        <v>207504</v>
+        <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>139535</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-67969</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="8">
         <f>C18</f>
-        <v>4014.7400000000002</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
         <f>B10/10</f>
-        <v>5421.15</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="H4" s="9">
         <v>24.3</v>
       </c>
       <c r="I4" s="8">
         <f>(G4-F4)/(C14*H4)</f>
-        <v>4.8230795610425217</v>
+        <v>8.527846364883402</v>
       </c>
       <c r="L4" s="49"/>
       <c r="M4" s="50"/>
@@ -1234,32 +1254,32 @@
         <v>16</v>
       </c>
       <c r="B5" s="10">
-        <v>86644.800000000003</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
-        <v>79617.600000000006</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-7027.1999999999971</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="8">
         <f>D18</f>
-        <v>3104.38</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
         <f>B8/10</f>
-        <v>4961.3519999999999</v>
+        <v>0</v>
       </c>
       <c r="H5" s="9">
         <v>37.200000000000003</v>
       </c>
       <c r="I5" s="8">
         <f>(G5-F5)/(C14*H5)</f>
-        <v>4.1598835125448019</v>
+        <v>0</v>
       </c>
       <c r="L5" s="49"/>
       <c r="M5" s="50"/>
@@ -1269,37 +1289,37 @@
         <v>56.179953653217012</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="10">
-        <v>73777.440000000002</v>
+        <v>0</v>
       </c>
       <c r="C6" s="10">
-        <v>54910</v>
+        <v>0</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>-18867.440000000002</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="13">
         <f>E18</f>
-        <v>4444.54</v>
+        <v>0</v>
       </c>
       <c r="G6" s="13">
         <f>B9/10</f>
-        <v>6472.49</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H6" s="14">
         <v>61.3</v>
       </c>
       <c r="I6" s="13">
         <f>(G6-F6)/(C14*H6)</f>
-        <v>2.7568651441000545</v>
+        <v>5.430451332245787</v>
       </c>
       <c r="N6" s="52"/>
       <c r="O6" s="41">
@@ -1312,39 +1332,39 @@
         <v>10</v>
       </c>
       <c r="B7" s="10">
-        <v>51991.28</v>
+        <v>5368.5</v>
       </c>
       <c r="C7" s="10">
-        <v>51885</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>-106.27999999999884</v>
+        <v>-5368.5</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7">
         <f>H18</f>
-        <v>7961.76</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>B5/10</f>
-        <v>8664.48</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>44</v>
       </c>
       <c r="I7">
         <f>(G7-F7)/(C14*H7)</f>
-        <v>1.3309090909090897</v>
+        <v>0</v>
       </c>
       <c r="N7" s="53" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="42">
         <f>I2-I10</f>
-        <v>-2.782012501015692</v>
+        <v>1.5103868067257737</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1352,25 +1372,25 @@
         <v>17</v>
       </c>
       <c r="B8" s="10">
-        <v>49613.52</v>
+        <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>31043.8</v>
+        <v>0</v>
       </c>
       <c r="D8" s="11">
         <f>C8-B8</f>
-        <v>-18569.719999999998</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8">
         <f>F7+F4</f>
-        <v>11976.5</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f>G7+G4</f>
-        <v>14085.63</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="H8" s="3">
         <f>H7+H4</f>
@@ -1378,12 +1398,12 @@
       </c>
       <c r="I8">
         <f>(G8-F8)/(C14*H8)</f>
-        <v>2.5733650561249384</v>
+        <v>3.0340653977550032</v>
       </c>
       <c r="N8" s="53"/>
       <c r="O8" s="42">
         <f>A26-G26</f>
-        <v>-6.2156017665728598</v>
+        <v>6.2579538210207506</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1391,25 +1411,25 @@
         <v>22</v>
       </c>
       <c r="B9" s="10">
-        <v>64724.9</v>
+        <v>9986.6</v>
       </c>
       <c r="C9" s="10">
-        <v>44445.4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11">
         <f>C9-B9</f>
-        <v>-20279.5</v>
+        <v>-9986.6</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="15">
         <f>SUM(F2:F6)</f>
-        <v>22243.16</v>
+        <v>0</v>
       </c>
       <c r="G9" s="15">
         <f>SUM(G2:G6)</f>
-        <v>29431.863999999994</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="H9" s="15">
         <f>SUM(H2:H6)</f>
@@ -1419,33 +1439,33 @@
       <c r="N9" s="53"/>
       <c r="O9" s="42">
         <f>A30-G30</f>
-        <v>660.84126786101842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6.2579538210207506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="16">
-        <v>54211.5</v>
+        <v>6216.8</v>
       </c>
       <c r="C10" s="16">
-        <v>40147.4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
-        <v>-14064.099999999999</v>
+        <v>-6216.8</v>
       </c>
       <c r="I10">
         <f>(G9-F9)/(H9*C14)</f>
-        <v>2.8061582661919906</v>
+        <v>3.3682936730997444</v>
       </c>
       <c r="N10" s="53" t="s">
         <v>25</v>
       </c>
       <c r="O10" s="42">
         <f>RANK(I2,(I2:I6),0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1453,7 +1473,7 @@
       <c r="N11" s="53"/>
       <c r="O11" s="42">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1465,7 +1485,7 @@
       <c r="N12" s="53"/>
       <c r="O12" s="42">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1485,14 +1505,14 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
-        <v>43453</v>
+        <v>43465</v>
       </c>
       <c r="B14" s="20">
-        <v>43465</v>
+        <v>43468</v>
       </c>
       <c r="C14" s="19">
         <f>B14-A14</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N14" s="52"/>
       <c r="O14" s="47"/>
@@ -1518,7 +1538,7 @@
       </c>
       <c r="O16" s="47"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>10</v>
       </c>
@@ -1549,39 +1569,38 @@
       <c r="N17" s="52"/>
       <c r="O17" s="47"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
-        <v>5188.5</v>
+        <v>0</v>
       </c>
       <c r="B18" s="22">
-        <v>5491</v>
+        <v>0</v>
       </c>
       <c r="C18" s="22">
-        <v>4014.7400000000002</v>
+        <v>0</v>
       </c>
       <c r="D18" s="22">
-        <v>3104.38</v>
+        <v>0</v>
       </c>
       <c r="E18" s="22">
-        <v>4444.54</v>
+        <v>0</v>
       </c>
       <c r="F18" s="22">
-        <v>12338.7</v>
+        <v>0</v>
       </c>
       <c r="G18" s="22">
-        <v>13953.5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="22">
-        <v>7961.76</v>
+        <v>0</v>
       </c>
       <c r="I18" s="43">
-        <f>SUM(A18:H18)</f>
-        <v>56497.120000000003</v>
+        <v>0</v>
       </c>
       <c r="N18" s="52"/>
       <c r="O18" s="48"/>
     </row>
-    <row r="19" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="46.8" x14ac:dyDescent="0.25">
       <c r="N19" s="38" t="s">
         <v>33</v>
       </c>
@@ -1589,7 +1608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
         <v>35</v>
       </c>
@@ -1608,7 +1627,7 @@
         <v>120.879999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
@@ -1635,41 +1654,41 @@
       </c>
       <c r="N21" s="55"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <f>B7/10</f>
-        <v>5199.1279999999997</v>
+        <v>536.85</v>
       </c>
       <c r="B22" s="25">
         <f>B6/10</f>
-        <v>7377.7440000000006</v>
+        <v>0</v>
       </c>
       <c r="C22" s="25">
         <f>B10/10</f>
-        <v>5421.15</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="D22" s="25">
         <f>B8/10</f>
-        <v>4961.3519999999999</v>
+        <v>0</v>
       </c>
       <c r="E22" s="25">
         <f>B9/10</f>
-        <v>6472.49</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F22" s="25">
         <f>B3/10</f>
-        <v>16188.48</v>
+        <v>1587.3</v>
       </c>
       <c r="G22" s="25">
         <f>B4/10</f>
-        <v>20750.400000000001</v>
+        <v>0</v>
       </c>
       <c r="H22" s="25">
         <f>B5/10</f>
-        <v>8664.48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
         <v>37</v>
       </c>
@@ -1682,7 +1701,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
@@ -1708,53 +1727,67 @@
       <c r="I25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="M25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="N25" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
-        <v>141.74285714285713</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="B26" s="26">
-        <v>136.6248888888889</v>
+        <v>0</v>
       </c>
       <c r="C26" s="26">
-        <v>223.09259259259258</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="D26" s="26">
-        <v>133.36967741935482</v>
+        <v>0</v>
       </c>
       <c r="E26" s="26">
-        <v>105.58711256117455</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="F26" s="26">
-        <v>196.92</v>
+        <v>0</v>
       </c>
       <c r="G26" s="26">
-        <v>147.95845890942999</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="43">
-        <v>206.23177159590043</v>
-      </c>
-      <c r="K26">
+        <v>9.1021961932650086</v>
+      </c>
+      <c r="M26">
         <f>A26-G26</f>
-        <v>-6.2156017665728598</v>
-      </c>
-      <c r="L26">
+        <v>6.2579538210207506</v>
+      </c>
+      <c r="N26">
         <f>A26-B26</f>
-        <v>5.117968253968229</v>
-      </c>
-      <c r="N26">
+        <v>14.636041439476555</v>
+      </c>
+      <c r="O26">
         <f>A26-C26</f>
-        <v>-81.349735449735448</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-10.947497655173651</v>
+      </c>
+      <c r="P26">
+        <f>A26-D26</f>
+        <v>14.636041439476555</v>
+      </c>
+      <c r="Q26">
+        <f>A26-E26</f>
+        <v>-1.655312557260805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>41</v>
       </c>
@@ -1765,7 +1798,7 @@
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
     </row>
-    <row r="29" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>10</v>
       </c>
@@ -1791,59 +1824,73 @@
       <c r="I29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="M29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="N29" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O29" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q29" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
-        <v>3487.3022900763358</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="B30" s="26">
-        <v>3224.6562592592595</v>
+        <v>0</v>
       </c>
       <c r="C30" s="26">
-        <v>2820.0631275720166</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="D30" s="26">
-        <v>3209.1994892473117</v>
+        <v>0</v>
       </c>
       <c r="E30" s="26">
-        <v>2208.0327406199017</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="F30" s="26">
-        <v>2328.3939999999998</v>
+        <v>0</v>
       </c>
       <c r="G30" s="26">
-        <v>2826.4610222153174</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="43">
-        <v>2503.3216691068815</v>
-      </c>
-      <c r="K30">
+        <v>9.1021961932650086</v>
+      </c>
+      <c r="M30">
         <f>A30-G30</f>
-        <v>660.84126786101842</v>
-      </c>
-      <c r="L30">
+        <v>6.2579538210207506</v>
+      </c>
+      <c r="N30">
         <f>A30-B30</f>
-        <v>262.64603081707628</v>
-      </c>
-      <c r="N30">
+        <v>14.636041439476555</v>
+      </c>
+      <c r="O30">
         <f>A30-C30</f>
-        <v>667.23916250431921</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-10.947497655173651</v>
+      </c>
+      <c r="P30">
+        <f>A30-D30</f>
+        <v>14.636041439476555</v>
+      </c>
+      <c r="Q30">
+        <f>A30-E30</f>
+        <v>-1.655312557260805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="51"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>43</v>
       </c>
@@ -1851,7 +1898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>45</v>
       </c>
@@ -1859,7 +1906,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>46</v>
       </c>
@@ -1867,7 +1914,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>47</v>
       </c>
@@ -1886,11 +1933,14 @@
       <c r="J36" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="K36" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>54</v>
       </c>
@@ -1899,32 +1949,32 @@
       </c>
       <c r="F37" s="31">
         <f>B14</f>
-        <v>43465</v>
+        <v>43468</v>
       </c>
       <c r="G37" s="32">
         <f>A26</f>
-        <v>141.74285714285713</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="I37" s="32">
-        <f>K26</f>
-        <v>-6.2156017665728598</v>
+        <f>M26</f>
+        <v>6.2579538210207506</v>
       </c>
       <c r="J37" s="32">
-        <f>L26</f>
-        <v>5.117968253968229</v>
-      </c>
-      <c r="K37">
+        <f>N26</f>
+        <v>14.636041439476555</v>
+      </c>
+      <c r="M37">
         <f>O11</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>57</v>
       </c>
@@ -1940,11 +1990,11 @@
       <c r="J39" t="s">
         <v>52</v>
       </c>
-      <c r="K39" s="35" t="s">
+      <c r="M39" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>59</v>
       </c>
@@ -1953,22 +2003,22 @@
       </c>
       <c r="G40" s="32">
         <f>A30</f>
-        <v>3487.3022900763358</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="I40" s="32">
-        <f>K30</f>
-        <v>660.84126786101842</v>
+        <f>M30</f>
+        <v>6.2579538210207506</v>
       </c>
       <c r="J40" s="32">
-        <f>L30</f>
-        <v>262.64603081707628</v>
-      </c>
-      <c r="K40">
+        <f>N30</f>
+        <v>14.636041439476555</v>
+      </c>
+      <c r="M40">
         <f>O12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>60</v>
       </c>
@@ -1976,7 +2026,7 @@
         <v>1277092368</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>61</v>
       </c>
@@ -1984,13 +2034,13 @@
         <v>1208799.99999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="34"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>63</v>
       </c>
@@ -1998,7 +2048,7 @@
         <v>2688353.0000000098</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>64</v>
       </c>
@@ -2006,13 +2056,13 @@
         <v>106714531</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="34"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>66</v>
       </c>
@@ -2020,7 +2070,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>67</v>
       </c>

--- a/工作代码/每日报表/利用小时统计表.xlsx
+++ b/工作代码/每日报表/利用小时统计表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C9AD77-A769-4A5F-A3F7-A927B2DE8FD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21EFAC3-5AC5-469D-B23C-C3774AAD90AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2736" windowWidth="18168" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3648" windowWidth="18168" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -739,21 +739,22 @@
     <xf numFmtId="179" fontId="7" fillId="12" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,7 +779,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - 着色 3" xfId="1" builtinId="38"/>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1084,10 +1084,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="50"/>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="53" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="39">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="L2" s="49"/>
       <c r="M2" s="50"/>
-      <c r="N2" s="52"/>
+      <c r="N2" s="53"/>
       <c r="O2" s="41">
         <f>B40/10000</f>
         <v>2060.6806999999999</v>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="L3" s="49"/>
       <c r="M3" s="50"/>
-      <c r="N3" s="52"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="41">
         <f>B41/10000</f>
         <v>127709.2368</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="L4" s="49"/>
       <c r="M4" s="50"/>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="53" t="s">
         <v>15</v>
       </c>
       <c r="O4" s="41">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="L5" s="49"/>
       <c r="M5" s="50"/>
-      <c r="N5" s="52"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="41">
         <f t="shared" ref="O5:O6" si="1">O2/36.68</f>
         <v>56.179953653217012</v>
@@ -1321,7 +1321,7 @@
         <f>(G6-F6)/(C14*H6)</f>
         <v>5.430451332245787</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="41">
         <f t="shared" si="1"/>
         <v>3481.7131079607416</v>
@@ -1359,7 +1359,7 @@
         <f>(G7-F7)/(C14*H7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="54" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="42">
@@ -1400,7 +1400,7 @@
         <f>(G8-F8)/(C14*H8)</f>
         <v>3.0340653977550032</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="54"/>
       <c r="O8" s="42">
         <f>A26-G26</f>
         <v>6.2579538210207506</v>
@@ -1436,7 +1436,7 @@
         <v>213.48000000000002</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="N9" s="53"/>
+      <c r="N9" s="54"/>
       <c r="O9" s="42">
         <f>A30-G30</f>
         <v>6.2579538210207506</v>
@@ -1460,7 +1460,7 @@
         <f>(G9-F9)/(H9*C14)</f>
         <v>3.3682936730997444</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="54" t="s">
         <v>25</v>
       </c>
       <c r="O10" s="42">
@@ -1470,19 +1470,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="18"/>
-      <c r="N11" s="53"/>
+      <c r="N11" s="54"/>
       <c r="O11" s="42">
         <f>RANK(A26,(A26,B26,C26,D26,E26),0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="N12" s="53"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="42">
         <f>RANK(A30,(A30,B30,C30,D30,E30),0)</f>
         <v>3</v>
@@ -1498,7 +1498,7 @@
       <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="53" t="s">
         <v>30</v>
       </c>
       <c r="O13" s="47"/>
@@ -1514,26 +1514,26 @@
         <f>B14-A14</f>
         <v>3</v>
       </c>
-      <c r="N14" s="52"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="52"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="21"/>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="53" t="s">
         <v>32</v>
       </c>
       <c r="O16" s="47"/>
@@ -1566,7 +1566,7 @@
       <c r="I17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="52"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
       <c r="I18" s="43">
         <v>0</v>
       </c>
-      <c r="N18" s="52"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:17" ht="46.8" x14ac:dyDescent="0.25">
@@ -1609,17 +1609,17 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="N20" s="54" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="N20" s="55" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="45">
@@ -1652,7 +1652,7 @@
       <c r="H21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
@@ -1689,17 +1689,17 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
@@ -1733,10 +1733,10 @@
       <c r="N25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="59" t="s">
+      <c r="O25" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="Q25" s="59" t="s">
+      <c r="Q25" s="46" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1788,15 +1788,15 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
@@ -1830,10 +1830,10 @@
       <c r="N29" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="59" t="s">
+      <c r="O29" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="Q29" s="59" t="s">
+      <c r="Q29" s="46" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1885,16 +1885,16 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="52"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="52" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       <c r="J36" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="59" t="s">
+      <c r="K36" s="46" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="35" t="s">
@@ -2080,6 +2080,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="L1:M5"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="N4:N6"/>
@@ -2092,11 +2097,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="L1:M5"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
